--- a/src/bigdata/static/db/cleaned_data.xlsx
+++ b/src/bigdata/static/db/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-13 11:47:38</t>
+          <t>2025-02-27 17:06:03</t>
         </is>
       </c>
     </row>
@@ -508,15 +508,19 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-13 14:31:23</t>
+          <t>2025-03-02 15:25:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uchiha Sasuke</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
@@ -524,41 +528,57 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>853</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-13 14:32:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uchiha Itachi</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uzumaki Naruto</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,20 +586,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>137</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hatake Kakashi</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
@@ -587,20 +615,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>138</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/7/284129.jpg?s=b0a6b941fd427cbfd85657f316c0e309</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>145</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haruno Sakura</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
@@ -608,133 +644,177 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/69275.jpg?s=36c4ad9f4440d77918c34c49870e719c</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lee Rock</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10189</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/13/433353.jpg?s=c2099a6532ecf14f4cf233c4cbd6532f</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>307</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Might Guy</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11061</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>728</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Momochi Zabuza</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13271</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/103706.jpg?s=4550a5e0c0af5a9f355a000386954d38</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>5/12/2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mitarashi Anko</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19951</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+        <v>1555</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hyuuga Hinata</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>853</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/6/278736.jpg?s=efc87a537d323edc47900cb08e1722c9</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-13 15:28:56</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>1662</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Uchiha Sasuke</t>
+          <t>Gaara</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -742,22 +822,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16/12/2020</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>1694</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Uchiha Itachi</t>
+          <t>Hyuuga Neji</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -767,32 +847,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9042360</v>
+        <v>9006038</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/105538.jpg?s=7603e3986722997b66259d9fea83a3b2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>1902</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Uzumaki Naruto</t>
+          <t>Deidara</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -800,28 +880,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/131319.jpg?s=02bd30a045b2aaabf13e22a0149845e2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hatake Kakashi</t>
+          <t>Nara Shikamaru</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -829,51 +909,51 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/284129.jpg?s=b0a6b941fd427cbfd85657f316c0e309</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/131315.jpg?s=a800fe970f638eae38b1e50d3471121d</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7/2/2020</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>145</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Haruno Sakura</t>
+          <t>Akimichi Chouji</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9470534</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/69275.jpg?s=36c4ad9f4440d77918c34c49870e719c</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>306</v>
+        <v>2009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lee Rock</t>
+          <t>Yamanaka Ino</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -887,22 +967,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/433353.jpg?s=c2099a6532ecf14f4cf233c4cbd6532f</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/60062.jpg?s=bd8ff387569eebde9eb9af3d2a7feefc</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>307</v>
+        <v>2011</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Might Guy</t>
+          <t>Umino Iruka</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -916,22 +996,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/100216.jpg?s=8ce41c2857b1d19260f46e114cc9d158</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>728</v>
+        <v>2039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Momochi Zabuza</t>
+          <t>Haku</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -945,22 +1025,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/103706.jpg?s=4550a5e0c0af5a9f355a000386954d38</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103707.jpg?s=6f30c87be8eabac48a20071677fd972c</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>22/11/2023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>809</v>
+        <v>2174</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mitarashi Anko</t>
+          <t>Temari</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -974,22 +1054,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/292452.jpg?s=81c9799689a262a4df639b3dd5c48bc3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1555</v>
+        <v>2405</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hyuuga Hinata</t>
+          <t>Yakushi Kabuto</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1003,22 +1083,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/278736.jpg?s=efc87a537d323edc47900cb08e1722c9</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1662</v>
+        <v>2423</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gaara</t>
+          <t>Jiraiya</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1032,22 +1112,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/68618.jpg?s=ec35c8f49aa4cd7389bfc36d30cda3d7</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1694</v>
+        <v>2455</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hyuuga Neji</t>
+          <t>Orochimaru</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1061,22 +1141,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/105538.jpg?s=7603e3986722997b66259d9fea83a3b2</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/162089.jpg?s=77b65c6a4dfa133ef211d805af39d986</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1902</v>
+        <v>2535</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deidara</t>
+          <t>Namikaze Minato</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1090,22 +1170,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/131319.jpg?s=02bd30a045b2aaabf13e22a0149845e2</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/128074.jpg?s=3c25d6b03a654401141036f32b6e9b8b</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3/6/2023</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2672</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nara Shikamaru</t>
+          <t>Hoshigaki Kisame</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1119,22 +1199,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/131315.jpg?s=a800fe970f638eae38b1e50d3471121d</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/433351.jpg?s=46d6b63938f0ab6572f96798dd4fba85</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2766</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Akimichi Chouji</t>
+          <t>Pakkun</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1148,22 +1228,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2767</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yamanaka Ino</t>
+          <t>Tsunade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1177,22 +1257,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/60062.jpg?s=bd8ff387569eebde9eb9af3d2a7feefc</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2011</v>
+        <v>2792</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Umino Iruka</t>
+          <t>Hidan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1206,22 +1286,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/100216.jpg?s=8ce41c2857b1d19260f46e114cc9d158</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2039</v>
+        <v>3052</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Haku</t>
+          <t>Tayuya</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1231,26 +1311,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103707.jpg?s=6f30c87be8eabac48a20071677fd972c</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/295205.jpg?s=cfb4d415aa30d426753c0aa1c14cbc2e</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2174</v>
+        <v>3150</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Temari</t>
+          <t>Zetsu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1264,22 +1344,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/292452.jpg?s=81c9799689a262a4df639b3dd5c48bc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/76260.jpg?s=f677ce2557f67393a92943f4b21270ab</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2405</v>
+        <v>3178</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yakushi Kabuto</t>
+          <t>Kakuzu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1293,22 +1373,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/255727.jpg?s=5c401401ec96dc333b18486cef42c242</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>7/10/2021</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2423</v>
+        <v>3179</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jiraiya</t>
+          <t>Konan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1322,22 +1402,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/68618.jpg?s=ec35c8f49aa4cd7389bfc36d30cda3d7</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/158755.jpg?s=511521e3840779df9fba75ea5a4b9b52</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2455</v>
+        <v>3180</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Orochimaru</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1351,22 +1431,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/162089.jpg?s=77b65c6a4dfa133ef211d805af39d986</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/73473.jpg?s=5c41288db6aa7a2339a4ff90ea211d49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2535</v>
+        <v>3428</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Namikaze Minato</t>
+          <t>Aburame Shino</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1380,22 +1460,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/128074.jpg?s=3c25d6b03a654401141036f32b6e9b8b</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/292449.jpg?s=f7b8f2084a65d22cd9381f25a55f8b2f</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2672</v>
+        <v>3438</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hoshigaki Kisame</t>
+          <t>Kimimaro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1409,22 +1489,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/433351.jpg?s=46d6b63938f0ab6572f96798dd4fba85</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103598.jpg?s=08ed0fcffe945f96b93afd9f48bd18b5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2766</v>
+        <v>3495</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pakkun</t>
+          <t>Inuzuka Kiba</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1434,26 +1514,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>9352018</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/131217.jpg?s=d3bc94609e7a552ec522daf99834c21a</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2767</v>
+        <v>3710</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tsunade</t>
+          <t>Tenten</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1467,22 +1547,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110946.jpg?s=babf65fba5bfda45c8c6dc400669b6cb</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>10/1/2021</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2792</v>
+        <v>3735</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hidan</t>
+          <t>Shiranui Genma</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1496,22 +1576,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3052</v>
+        <v>3889</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tayuya</t>
+          <t>Sarutobi Konohamaru</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1525,22 +1605,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/295205.jpg?s=cfb4d415aa30d426753c0aa1c14cbc2e</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/109419.jpg?s=818d5a433ba71a276feb67578ccf711a</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3150</v>
+        <v>4223</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Zetsu</t>
+          <t>Gamabunta</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1554,22 +1634,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/76260.jpg?s=f677ce2557f67393a92943f4b21270ab</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/70846.jpg?s=6516b681e86fa72587edc431286fdcc2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3178</v>
+        <v>4643</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kakuzu</t>
+          <t>Shizune</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1579,26 +1659,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/255727.jpg?s=5c401401ec96dc333b18486cef42c242</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103794.jpg?s=34f7e533eadf02840c039b3bc4f40f06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3179</v>
+        <v>4694</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Konan</t>
+          <t>Kankurou</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1612,22 +1692,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/158755.jpg?s=511521e3840779df9fba75ea5a4b9b52</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/68615.jpg?s=6f6d40205ea049c4a579e6a2d756daa0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3180</v>
+        <v>4773</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Yuuhi Kurenai</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1637,26 +1717,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>9377038</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/73473.jpg?s=5c41288db6aa7a2339a4ff90ea211d49</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3428</v>
+        <v>4775</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aburame Shino</t>
+          <t>Sarutobi Asuma</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1670,22 +1750,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292449.jpg?s=f7b8f2084a65d22cd9381f25a55f8b2f</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/82538.jpg?s=5196f696350f23474767acdf6efc6b8f</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3438</v>
+        <v>4799</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kimimaro</t>
+          <t>Akamaru</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1699,22 +1779,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103598.jpg?s=08ed0fcffe945f96b93afd9f48bd18b5</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/58197.jpg?s=72fb82b5f99c06ba07d67f7e0c845aec</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3495</v>
+        <v>5737</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Inuzuka Kiba</t>
+          <t>Isaribi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1724,26 +1804,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>9235721</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/131217.jpg?s=d3bc94609e7a552ec522daf99834c21a</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/5/2020</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3710</v>
+        <v>6598</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tenten</t>
+          <t>Rokushou Aoi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1757,22 +1837,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110946.jpg?s=babf65fba5bfda45c8c6dc400669b6cb</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57902.jpg?s=7f98276b2da7d5d6bf43aa6eb5175a82</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3735</v>
+        <v>7310</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shiranui Genma</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1786,22 +1866,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3889</v>
+        <v>7407</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sarutobi Konohamaru</t>
+          <t>Kurama</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1815,22 +1895,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/109419.jpg?s=818d5a433ba71a276feb67578ccf711a</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4223</v>
+        <v>7571</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gamabunta</t>
+          <t>Sarutobi Hiruzen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1844,28 +1924,28 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/70846.jpg?s=6516b681e86fa72587edc431286fdcc2</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4643</v>
+        <v>7608</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shizune</t>
+          <t>Katsuyu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1873,22 +1953,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103794.jpg?s=34f7e533eadf02840c039b3bc4f40f06</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4694</v>
+        <v>7738</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kankurou</t>
+          <t>Gekkou Hayate</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1902,22 +1982,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/68615.jpg?s=6f6d40205ea049c4a579e6a2d756daa0</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9/1/2023</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4773</v>
+        <v>8495</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Yuuhi Kurenai</t>
+          <t>Jiroubou</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1931,22 +2011,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4775</v>
+        <v>8497</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sarutobi Asuma</t>
+          <t>Kidoumaru</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1960,22 +2040,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/82538.jpg?s=5196f696350f23474767acdf6efc6b8f</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4799</v>
+        <v>8760</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Akamaru</t>
+          <t>Sakon</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1989,22 +2069,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/58197.jpg?s=72fb82b5f99c06ba07d67f7e0c845aec</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5737</v>
+        <v>8771</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Isaribi</t>
+          <t>Kurosuki Raiga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2018,22 +2098,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6598</v>
+        <v>8810</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rokushou Aoi</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2047,22 +2127,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57902.jpg?s=7f98276b2da7d5d6bf43aa6eb5175a82</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7310</v>
+        <v>8997</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Abumi Zaku</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2076,22 +2156,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7407</v>
+        <v>9244</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kurama</t>
+          <t>Kinuta Dosu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2101,26 +2181,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/1/2022</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7571</v>
+        <v>9699</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sarutobi Hiruzen</t>
+          <t>Akado Yoroi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2134,22 +2214,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7608</v>
+        <v>10524</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Katsuyu</t>
+          <t>Seimei</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2163,22 +2243,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7738</v>
+        <v>10697</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gekkou Hayate</t>
+          <t>Aburame Shibi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2192,22 +2272,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8495</v>
+        <v>10698</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jiroubou</t>
+          <t>Akahoshi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2221,22 +2301,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8497</v>
+        <v>10699</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kidoumaru</t>
+          <t>Akimichi Chouza</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2250,22 +2330,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8760</v>
+        <v>10700</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sakon</t>
+          <t>Akio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2275,26 +2355,26 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>9042505</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8771</v>
+        <v>10791</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kurosuki Raiga</t>
+          <t>Ebisu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2304,26 +2384,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8810</v>
+        <v>11813</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Shukaku</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2337,22 +2417,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>8/4/2022</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8997</v>
+        <v>12464</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Abumi Zaku</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2366,22 +2446,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9244</v>
+        <v>12465</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kinuta Dosu</t>
+          <t>Senju Tobirama</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2395,22 +2475,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9680</v>
+        <v>12563</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tsuchi Kin</t>
+          <t>Hyuuga Hanabi</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2424,22 +2504,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9699</v>
+        <v>12767</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Akado Yoroi</t>
+          <t>Tsunade</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2453,22 +2533,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10307</v>
+        <v>13017</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Might Guy</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2482,22 +2562,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10524</v>
+        <v>13179</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Seimei</t>
+          <t>Konan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2511,22 +2591,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/158755.jpg?s=511521e3840779df9fba75ea5a4b9b52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10697</v>
+        <v>13454</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aburame Shibi</t>
+          <t>Kazamatsuri Moegi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2540,22 +2620,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10698</v>
+        <v>14032</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Akahoshi</t>
+          <t>Kamizuki Izumo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2569,22 +2649,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10699</v>
+        <v>14773</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Akimichi Chouza</t>
+          <t>Yuuhi Kurenai</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2598,22 +2678,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10700</v>
+        <v>15039</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Akio</t>
+          <t>Hyuuga Hiashi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2632,17 +2712,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10791</v>
+        <v>15045</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ebisu</t>
+          <t>Uzuki Yugao</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2656,22 +2736,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>1/4/2022</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10809</v>
+        <v>15072</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mitarashi Anko</t>
+          <t>Yamanaka Inoichi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2685,22 +2765,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11662</v>
+        <v>15073</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Gaara</t>
+          <t>Inuzuka Hana</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2714,22 +2794,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11813</v>
+        <v>15074</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Shukaku</t>
+          <t>Inuzuka Tsume</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2743,22 +2823,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12464</v>
+        <v>15077</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Senju Hashirama</t>
+          <t>Tsunami</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2768,26 +2848,26 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12465</v>
+        <v>15081</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Baki</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2801,22 +2881,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12563</v>
+        <v>15145</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hyuuga Hanabi</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2826,26 +2906,26 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>12792</v>
+        <v>15177</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidan</t>
+          <t>Fuuma Sasame</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2859,22 +2939,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>13017</v>
+        <v>15178</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Haruna</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2888,22 +2968,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>13454</v>
+        <v>15179</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kazamatsuri Moegi</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2917,22 +2997,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13735</v>
+        <v>15757</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Shiranui Genma</t>
+          <t>Enma</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2942,26 +3022,26 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>9770835</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>14032</v>
+        <v>15759</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kamizuki Izumo</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2975,22 +3055,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/10/2020</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>14773</v>
+        <v>16164</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Yuuhi Kurenai</t>
+          <t>Gouzu</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3000,26 +3080,26 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>9723291</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15039</v>
+        <v>16165</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hyuuga Hiashi</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3033,22 +3113,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15045</v>
+        <v>16304</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Hagane Kotetsu</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3062,22 +3142,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>15072</v>
+        <v>16321</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3091,28 +3171,28 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15073</v>
+        <v>16952</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Gamatatsu</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3120,22 +3200,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>15074</v>
+        <v>16973</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Uchiha Fugaku</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3149,22 +3229,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>15077</v>
+        <v>16974</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3178,22 +3258,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>15081</v>
+        <v>16975</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Baki</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3203,26 +3283,26 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20</v>
+        <v>9145372</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/8/2023</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>15145</v>
+        <v>16976</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Wasabi Jirouchou</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -3236,22 +3316,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15176</v>
+        <v>16999</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fuuma Kamikiri</t>
+          <t>Gamakichi</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -3265,22 +3345,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>15177</v>
+        <v>17165</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Chishima</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -3294,22 +3374,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15178</v>
+        <v>17197</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Haruna</t>
+          <t>Tazuna</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -3323,22 +3403,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>15179</v>
+        <v>17199</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Genno</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -3352,22 +3432,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>8/7/2021</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>15737</v>
+        <v>17200</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Isaribi</t>
+          <t>Todoroki</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -3381,22 +3461,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>15757</v>
+        <v>17298</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Enma</t>
+          <t>Namiashi Raidou</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -3406,26 +3486,26 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20</v>
+        <v>9587683</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>15759</v>
+        <v>17302</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mizura</t>
+          <t>Karashi</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -3439,22 +3519,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16164</v>
+        <v>17305</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Gouzu</t>
+          <t>Ryuugan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -3468,22 +3548,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>16165</v>
+        <v>17307</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Hikyakuya Fukusuke</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -3497,22 +3577,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>16304</v>
+        <v>17310</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Ayame</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -3522,26 +3602,26 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>9570559</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16321</v>
+        <v>17312</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Teuchi</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3555,22 +3635,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16952</v>
+        <v>17313</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gamatatsu</t>
+          <t>Fuuma Jigumo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3584,22 +3664,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16973</v>
+        <v>17316</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Fuuma Arashi</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3609,26 +3689,26 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>9393558</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>16974</v>
+        <v>17414</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Ranmaru</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3642,22 +3722,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16975</v>
+        <v>17424</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Hokushin</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3671,22 +3751,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16976</v>
+        <v>17425</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Renga</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3700,22 +3780,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>17/4/2021</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16999</v>
+        <v>17535</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Gamakichi</t>
+          <t>Genzou</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3729,22 +3809,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>3/7/2023</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17165</v>
+        <v>17536</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chishima</t>
+          <t>Gatsu</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -3754,26 +3834,26 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17197</v>
+        <v>17537</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Dengaku</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -3787,22 +3867,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17199</v>
+        <v>17538</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Genno</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -3816,22 +3896,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17200</v>
+        <v>17539</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Todoroki</t>
+          <t>Hokuto</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -3841,26 +3921,26 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17298</v>
+        <v>17540</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Namiashi Raidou</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -3874,22 +3954,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17302</v>
+        <v>17541</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Karashi</t>
+          <t>Nagare</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -3899,26 +3979,26 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>9032505</v>
+        <v>20</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17305</v>
+        <v>17542</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Nanafushi</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -3932,22 +4012,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17307</v>
+        <v>17543</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hikyakuya Fukusuke</t>
+          <t>Nan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -3957,26 +4037,26 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17310</v>
+        <v>17544</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ayame</t>
+          <t>Kazabune</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -3990,22 +4070,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17312</v>
+        <v>17545</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Teuchi</t>
+          <t>Kurama Yakumo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4019,22 +4099,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17313</v>
+        <v>17546</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fuuma Jigumo</t>
+          <t>Sazanami</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4048,22 +4128,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4/5/2021</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17316</v>
+        <v>17547</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fuuma Arashi</t>
+          <t>Senta</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4077,22 +4157,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17414</v>
+        <v>17548</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ranmaru</t>
+          <t>Shinemon</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4106,22 +4186,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17424</v>
+        <v>17549</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hokushin</t>
+          <t>Yajirobee</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4135,22 +4215,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17425</v>
+        <v>17551</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Renga</t>
+          <t>Tanzou</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4164,22 +4244,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17535</v>
+        <v>17552</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Genzou</t>
+          <t>Waraji</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4193,22 +4273,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12/9/2020</t>
+          <t>12/2/2021</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17536</v>
+        <v>17553</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gatsu</t>
+          <t>Yamashiro Aoba</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4222,22 +4302,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17537</v>
+        <v>17557</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dengaku</t>
+          <t>Kamizuru Jibachi</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4251,22 +4331,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17538</v>
+        <v>17619</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Oboro</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4280,22 +4360,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>23/2/2021</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17539</v>
+        <v>17666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4309,22 +4389,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>17540</v>
+        <v>18056</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Nara Shikaku</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4338,22 +4418,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>17541</v>
+        <v>19253</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nagare</t>
+          <t>Touji Mizuki</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -4367,22 +4447,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>17542</v>
+        <v>20274</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nanafushi</t>
+          <t>Giichi</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4396,22 +4476,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>17543</v>
+        <v>20276</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nan</t>
+          <t>Jantou</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -4425,22 +4505,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>17544</v>
+        <v>20277</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Kusabi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -4450,26 +4530,26 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>9297800</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17545</v>
+        <v>20278</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kurama Yakumo</t>
+          <t>Hachidai</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -4483,22 +4563,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>17546</v>
+        <v>20279</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Hakkaku</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -4512,22 +4592,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>17547</v>
+        <v>20645</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Senta</t>
+          <t>Akane</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -4541,28 +4621,28 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17548</v>
+        <v>21122</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Shinemon</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4570,22 +4650,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17549</v>
+        <v>21365</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Yajirobee</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -4599,22 +4679,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>17551</v>
+        <v>22247</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tanzou</t>
+          <t>Nara Yoshino</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -4628,22 +4708,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>17552</v>
+        <v>22248</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Karura</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -4657,22 +4737,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>17553</v>
+        <v>22648</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Mitokado Homura</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -4686,22 +4766,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>17557</v>
+        <v>22649</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Utatane Koharu</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -4715,22 +4795,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2/2/2020</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17608</v>
+        <v>22876</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Katsuyu</t>
+          <t>Katou Dan</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4744,22 +4824,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17619</v>
+        <v>22880</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Oboro</t>
+          <t>Hyuuga Hizashi</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -4773,22 +4853,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17666</v>
+        <v>22881</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Kuromaru</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -4802,22 +4882,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>18056</v>
+        <v>22884</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Nawaki</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -4831,22 +4911,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>18497</v>
+        <v>22889</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Kidoumaru</t>
+          <t>Uchiha Tekka</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -4860,22 +4940,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>18760</v>
+        <v>22891</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sakon</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4889,22 +4969,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>18810</v>
+        <v>22908</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4918,22 +4998,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>19253</v>
+        <v>22920</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Touji Mizuki</t>
+          <t>Rasa</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -4947,22 +5027,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/3/2022</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>19699</v>
+        <v>22921</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Akado Yoroi</t>
+          <t>Tsurugi Misumi</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -4976,22 +5056,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20274</v>
+        <v>22922</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Giichi</t>
+          <t>Genyuumaru</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -5001,26 +5081,26 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>20276</v>
+        <v>22923</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Morino Ibiki</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -5034,22 +5114,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>20277</v>
+        <v>22931</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kusabi</t>
+          <t>Zouri</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -5063,22 +5143,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>6/12/2020</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>20278</v>
+        <v>22996</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hachidai</t>
+          <t>Kaiza</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -5088,26 +5168,26 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9153996</v>
+        <v>20</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>20279</v>
+        <v>23006</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hakkaku</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -5121,22 +5201,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>20645</v>
+        <v>23017</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Akane</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -5150,22 +5230,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>20697</v>
+        <v>23052</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Aburame Shibi</t>
+          <t>Ise Udon</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -5179,22 +5259,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>20699</v>
+        <v>23053</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Akimichi Chouza</t>
+          <t>Hiruko</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -5208,22 +5288,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>21122</v>
+        <v>23056</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -5237,22 +5317,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>21365</v>
+        <v>23081</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Baiu</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -5266,22 +5346,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>22247</v>
+        <v>23083</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Midare</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -5295,22 +5375,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>22248</v>
+        <v>23140</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Karura</t>
+          <t>Tobitake Tonbo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -5324,22 +5404,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>22465</v>
+        <v>23143</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -5353,22 +5433,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22648</v>
+        <v>23144</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -5382,22 +5462,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>22649</v>
+        <v>23145</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Shiba</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -5411,22 +5491,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22876</v>
+        <v>23153</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Katou Dan</t>
+          <t>Shiore</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -5440,22 +5520,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>22880</v>
+        <v>23154</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hyuuga Hizashi</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -5469,22 +5549,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>22881</v>
+        <v>23155</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kuromaru</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -5498,22 +5578,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22884</v>
+        <v>23156</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nawaki</t>
+          <t>Shibire</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -5527,22 +5607,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22889</v>
+        <v>23215</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Uchiha Tekka</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -5556,22 +5636,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>22891</v>
+        <v>23569</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Guruko</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -5581,26 +5661,26 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22908</v>
+        <v>23759</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Tatami Iwashi</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -5614,22 +5694,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>22920</v>
+        <v>24324</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Tobio</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -5643,22 +5723,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>22921</v>
+        <v>25145</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -5672,22 +5752,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>22922</v>
+        <v>26165</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Genyuumaru</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -5701,22 +5781,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>22923</v>
+        <v>26973</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Morino Ibiki</t>
+          <t>Uchiha Fugaku</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -5730,22 +5810,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>22931</v>
+        <v>26974</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Zouri</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -5759,22 +5839,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>22996</v>
+        <v>27545</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Kurama Yakumo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -5788,22 +5868,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23006</v>
+        <v>27547</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Senta</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -5817,22 +5897,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>23052</v>
+        <v>27548</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Shinemon</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -5846,22 +5926,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23053</v>
+        <v>27619</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Hiruko</t>
+          <t>Oboro</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -5875,22 +5955,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23056</v>
+        <v>27666</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -5904,22 +5984,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>23081</v>
+        <v>27688</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Baiu</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -5929,26 +6009,26 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>23083</v>
+        <v>28056</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Midare</t>
+          <t>Nara Shikaku</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -5962,22 +6042,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>23140</v>
+        <v>30645</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tobitake Tonbo</t>
+          <t>Akane</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -5991,22 +6071,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>23143</v>
+        <v>31197</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -6020,22 +6100,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>23144</v>
+        <v>31365</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -6049,22 +6129,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>23145</v>
+        <v>31828</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -6078,22 +6158,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>23153</v>
+        <v>34075</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Shiore</t>
+          <t>Bisuke</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -6107,22 +6187,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>23154</v>
+        <v>37929</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>Manda</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -6136,22 +6216,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>23155</v>
+        <v>41366</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hijiri Shimon</t>
+          <t>Ukon</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -6165,22 +6245,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>23156</v>
+        <v>43923</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Shibire</t>
+          <t>Kunihisa</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -6194,22 +6274,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>23215</v>
+        <v>43924</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Kunijirou</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -6223,22 +6303,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>23569</v>
+        <v>43972</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Guruko</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -6252,22 +6332,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>23759</v>
+        <v>46605</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tatami Iwashi</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6281,22 +6361,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>24324</v>
+        <v>50957</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tobio</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -6310,22 +6390,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>25045</v>
+        <v>51366</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Ukon</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6339,22 +6419,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>25072</v>
+        <v>53972</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6368,22 +6448,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>25073</v>
+        <v>63793</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Gatou</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -6397,22 +6477,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>25074</v>
+        <v>67289</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Haruno Mebuki</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -6426,22 +6506,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25077</v>
+        <v>77693</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Natsuhi</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -6455,22 +6535,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>25177</v>
+        <v>82609</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -6480,26 +6560,26 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20</v>
+        <v>9452174</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>25179</v>
+        <v>83755</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -6513,22 +6593,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>26165</v>
+        <v>90849</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Tonton</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -6542,22 +6622,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>26304</v>
+        <v>91137</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Kujaku</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -6571,22 +6651,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>26321</v>
+        <v>93755</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -6600,22 +6680,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>26973</v>
+        <v>129493</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Kurama Unkai</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -6625,26 +6705,26 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20</v>
+        <v>9878500</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>26976</v>
+        <v>149421</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Akame Iwana</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -6654,26 +6734,26 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>20</v>
+        <v>9512198</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>27197</v>
+        <v>149422</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Bekkou</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -6687,22 +6767,22 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>27305</v>
+        <v>149423</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Ibara</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -6716,22 +6796,22 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>27538</v>
+        <v>149424</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -6745,22 +6825,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>1/2/2023</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>27539</v>
+        <v>159424</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -6774,22 +6854,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>27540</v>
+        <v>160858</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Fukuyokana</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -6803,28 +6883,28 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>27544</v>
+        <v>160859</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Shinayakana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -6832,22 +6912,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>27546</v>
+        <v>161288</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -6861,22 +6941,22 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>27552</v>
+        <v>171288</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -6890,22 +6970,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>27553</v>
+        <v>197866</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Kamizuru Kurobachi</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -6919,22 +6999,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>27557</v>
+        <v>197867</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Kamizuru Suzumebachi</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -6948,22 +7028,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>27666</v>
+        <v>206139</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Momiji</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -6977,22 +7057,22 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>27688</v>
+        <v>206141</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Fuuma Kotohime</t>
+          <t>Kagero</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -7006,22 +7086,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>28056</v>
+        <v>206142</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Raijin</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7035,22 +7115,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>30276</v>
+        <v>206143</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -7060,26 +7140,26 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>31197</v>
+        <v>206144</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Morino Idate</t>
+          <t>Koumei</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -7093,22 +7173,22 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>31365</v>
+        <v>206145</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Ruiga</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -7122,22 +7202,22 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>31828</v>
+        <v>216141</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Kagero</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7151,22 +7231,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>32247</v>
+        <v>216142</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Raijin</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -7180,22 +7260,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>32648</v>
+        <v>216144</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Koumei</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -7209,22 +7289,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>32649</v>
+        <v>227807</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -7238,22 +7318,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>32920</v>
+        <v>227808</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Kagetsu Toubei</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -7267,22 +7347,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>32921</v>
+        <v>227809</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -7296,22 +7376,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>32996</v>
+        <v>227810</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Kagetsu Mai</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -7325,22 +7405,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>33006</v>
+        <v>227811</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Kikunojou</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -7354,22 +7434,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>33052</v>
+        <v>227812</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Sanjurou Shura</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -7383,22 +7463,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>33143</v>
+        <v>227898</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Yurinojou</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7412,22 +7492,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>33145</v>
+        <v>227899</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Hanzaki</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7441,22 +7521,22 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>34075</v>
+        <v>227900</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Bisuke</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -7466,26 +7546,26 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9920197</v>
+        <v>9372945</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>37929</v>
+        <v>234151</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Narrator</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -7499,22 +7579,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>41366</v>
+        <v>237808</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ukon</t>
+          <t>Kagetsu Toubei</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -7524,26 +7604,26 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9824943</v>
+        <v>20</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>41828</v>
+        <v>237898</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Yurinojou</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -7557,22 +7637,22 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>43923</v>
+        <v>237900</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Kunihisa</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -7586,22 +7666,22 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43924</v>
+        <v>245051</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kunijirou</t>
+          <t>Wagarashi Kyuuroku</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -7615,22 +7695,22 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>43972</v>
+        <v>251508</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Rokusuke</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -7644,22 +7724,22 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>46605</v>
+        <v>251515</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Sangorou</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -7673,22 +7753,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>47929</v>
+        <v>251571</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Sukeza</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -7702,22 +7782,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>50957</v>
+        <v>251864</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Gosunkugi</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -7731,22 +7811,22 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>53972</v>
+        <v>251865</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Manaka Michizou</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -7760,22 +7840,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>63793</v>
+        <v>252501</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Gatou</t>
+          <t>Potcha</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -7785,26 +7865,26 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9560061</v>
+        <v>20</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>67289</v>
+        <v>252721</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Haruno Mebuki</t>
+          <t>Oowashi</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -7814,26 +7894,26 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>9487444</v>
+        <v>20</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>77693</v>
+        <v>252722</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Natsuhi</t>
+          <t>Amachi</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -7843,26 +7923,26 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>82609</v>
+        <v>252723</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Hitode</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -7876,22 +7956,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>83755</v>
+        <v>252724</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Gantetsu</t>
+          <t>Kaisen Agari</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -7901,26 +7981,26 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>88313</v>
+        <v>252725</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Hakus Mother</t>
+          <t>Hotarubi</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -7934,22 +8014,22 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>90849</v>
+        <v>252726</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tonton</t>
+          <t>Shisou</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -7963,22 +8043,22 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>91137</v>
+        <v>252729</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kujaku</t>
+          <t>Kagetsu Kiyoyasu</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -7988,26 +8068,26 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>9801595</v>
+        <v>20</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>129493</v>
+        <v>252730</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kurama Unkai</t>
+          <t>Jiga</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -8021,22 +8101,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>149421</v>
+        <v>252731</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Akame Iwana</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8050,22 +8130,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>11/3/2021</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>149422</v>
+        <v>252732</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Bekkou</t>
+          <t>Fuku</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -8079,22 +8159,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>24/7/2021</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>149423</v>
+        <v>252733</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Kayo</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -8108,22 +8188,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>149424</v>
+        <v>252734</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Kubisaki Kouza</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -8137,22 +8217,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>159423</v>
+        <v>252737</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Ryuudouin Genshou</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -8162,26 +8242,26 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20</v>
+        <v>9232346</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>160858</v>
+        <v>252738</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Yagura</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -8195,22 +8275,22 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>23/2/2023</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>160859</v>
+        <v>252741</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Shinayakana</t>
+          <t>Ryuudouin Agira</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -8224,22 +8304,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>161288</v>
+        <v>252742</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sanshou</t>
+          <t>Ryuudouin Jakou</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -8253,22 +8333,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>25/9/2021</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>170858</v>
+        <v>252743</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Ryuudouin Rokkaku</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -8282,22 +8362,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>197866</v>
+        <v>252779</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Kamizuru Kurobachi</t>
+          <t>Kanna</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -8307,26 +8387,26 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>9216787</v>
+        <v>20</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>197867</v>
+        <v>252908</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Kurama Uroko</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -8340,22 +8420,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>31/9/2020</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>206139</v>
+        <v>252909</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Momiji</t>
+          <t>Kurama Murakumo</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -8369,22 +8449,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>206141</v>
+        <v>252910</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Kagero</t>
+          <t>Monju</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -8394,26 +8474,26 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>206142</v>
+        <v>252911</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Raijin</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -8427,22 +8507,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>206143</v>
+        <v>252912</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Tsuzumi</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -8456,22 +8536,22 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>206144</v>
+        <v>252915</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Fuki</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -8485,22 +8565,22 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>206145</v>
+        <v>252916</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ruiga</t>
+          <t>Shiin</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -8514,22 +8594,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>207867</v>
+        <v>252918</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Suiko</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -8543,22 +8623,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>216143</v>
+        <v>255312</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Mozuku</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -8572,22 +8652,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>216144</v>
+        <v>256932</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Madam Shijimi</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -8601,22 +8681,22 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>227807</v>
+        <v>261865</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Manaka Michizou</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -8630,22 +8710,22 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>227808</v>
+        <v>262730</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Kagetsu Toubei</t>
+          <t>Jiga</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -8659,22 +8739,22 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>227809</v>
+        <v>262731</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kagetsu Tsukiko</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -8688,22 +8768,22 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>227810</v>
+        <v>262908</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Kagetsu Mai</t>
+          <t>Kurama Uroko</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -8717,22 +8797,22 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>227811</v>
+        <v>262909</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kikunojou</t>
+          <t>Kurama Murakumo</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -8742,26 +8822,26 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9920694</v>
+        <v>20</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>227812</v>
+        <v>267451</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sanjurou Shura</t>
+          <t>Funeno Daikoku</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -8775,22 +8855,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>28/11/2020</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>227898</v>
+        <v>267452</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Yurinojou</t>
+          <t>Chouhan</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -8804,1462 +8884,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>227899</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Hanzaki</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>20</v>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>227900</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Houki</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>9466012</v>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>234151</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Narrator</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>20</v>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>237809</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Kagetsu Tsukiko</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>20</v>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>237812</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Sanjurou Shura</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>20</v>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>237900</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Houki</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>20</v>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>245051</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Wagarashi Kyuuroku</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>20</v>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>251508</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Rokusuke</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>20</v>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>251515</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Sangorou</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>20</v>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>251571</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Sukeza</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0</v>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>251864</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Gosunkugi</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>20</v>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>251865</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Manaka Michizou</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>20</v>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>21/1/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>252501</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Potcha</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>20</v>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>252721</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Oowashi</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>0</v>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>252722</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Amachi</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>20</v>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>18/1/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>252723</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Hitode</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>20</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>252724</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Kaisen Agari</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>20</v>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>252725</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Hotarubi</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>20</v>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>252726</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Shisou</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>20</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>252729</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Kagetsu Kiyoyasu</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>20</v>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>252730</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Jiga</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>20</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>252731</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Chikara</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
-        <v>20</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>252732</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Fuku</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>20</v>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>252733</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Kayo</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
-        <v>20</v>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>252734</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Kubisaki Kouza</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E317" t="n">
-        <v>20</v>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>252737</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Ryuudouin Genshou</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>20</v>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>252738</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Yagura</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v>20</v>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>252741</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Ryuudouin Agira</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>20</v>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>252742</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Ryuudouin Jakou</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v>20</v>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>252743</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Ryuudouin Rokkaku</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E322" t="n">
-        <v>20</v>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>6/9/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>252779</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Kanna</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E323" t="n">
-        <v>9951995</v>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>252908</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Kurama Uroko</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E324" t="n">
-        <v>20</v>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>252909</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Kurama Murakumo</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E325" t="n">
-        <v>20</v>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>252910</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Monju</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E326" t="n">
-        <v>20</v>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>252911</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Toki</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E327" t="n">
-        <v>9131714</v>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>252912</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Tsuzumi</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>20</v>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>252915</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Fuki</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E329" t="n">
-        <v>20</v>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>252916</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Shiin</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E330" t="n">
-        <v>20</v>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>252918</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Suiko</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E331" t="n">
-        <v>20</v>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>9/8/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>255312</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Mozuku</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>20</v>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>15/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>256932</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Madam Shijimi</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
-        <v>20</v>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>261865</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Manaka Michizou</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>20</v>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>262721</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Oowashi</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>20</v>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>262723</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Hitode</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E336" t="n">
-        <v>20</v>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
-        </is>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>262730</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Jiga</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E337" t="n">
-        <v>20</v>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>262911</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Toki</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>20</v>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>267451</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Funeno Daikoku</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>20</v>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
-        </is>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>267452</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Chouhan</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>20</v>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>277451</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Funeno Daikoku</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E341" t="n">
-        <v>20</v>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>277452</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chouhan</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>20</v>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-17 21:52:39</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/db/cleaned_data.xlsx
+++ b/src/bigdata/static/db/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-13 11:47:38</t>
+          <t>2025-02-27 17:06:03</t>
         </is>
       </c>
     </row>
@@ -508,15 +508,19 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-13 14:31:23</t>
+          <t>2025-03-02 15:25:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uchiha Sasuke</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
@@ -524,41 +528,57 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>853</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-13 14:32:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uchiha Itachi</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uzumaki Naruto</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,20 +586,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>137</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hatake Kakashi</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
@@ -587,20 +615,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>138</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/7/284129.jpg?s=b0a6b941fd427cbfd85657f316c0e309</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>145</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haruno Sakura</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
@@ -608,133 +644,177 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/9/69275.jpg?s=36c4ad9f4440d77918c34c49870e719c</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lee Rock</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10189</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/13/433353.jpg?s=c2099a6532ecf14f4cf233c4cbd6532f</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>23/2/2021</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>307</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Might Guy</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11061</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+        <v>728</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Momochi Zabuza</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13271</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/103706.jpg?s=4550a5e0c0af5a9f355a000386954d38</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>809</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mitarashi Anko</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19951</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-13 14:35:57</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+        <v>1555</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hyuuga Hinata</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>853</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/6/278736.jpg?s=efc87a537d323edc47900cb08e1722c9</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-13 15:28:56</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>1662</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Uchiha Sasuke</t>
+          <t>Gaara</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -742,22 +822,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16/12/2020</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>1694</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Uchiha Itachi</t>
+          <t>Hyuuga Neji</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -767,32 +847,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9042360</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/105538.jpg?s=7603e3986722997b66259d9fea83a3b2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>1902</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Uzumaki Naruto</t>
+          <t>Deidara</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -800,28 +880,28 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/131319.jpg?s=02bd30a045b2aaabf13e22a0149845e2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hatake Kakashi</t>
+          <t>Nara Shikamaru</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -829,51 +909,51 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/284129.jpg?s=b0a6b941fd427cbfd85657f316c0e309</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/131315.jpg?s=a800fe970f638eae38b1e50d3471121d</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7/2/2020</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>145</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Haruno Sakura</t>
+          <t>Akimichi Chouji</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9470534</v>
+        <v>20</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/69275.jpg?s=36c4ad9f4440d77918c34c49870e719c</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>10/9/2020</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>306</v>
+        <v>2009</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lee Rock</t>
+          <t>Yamanaka Ino</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -887,22 +967,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/433353.jpg?s=c2099a6532ecf14f4cf233c4cbd6532f</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/60062.jpg?s=bd8ff387569eebde9eb9af3d2a7feefc</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>307</v>
+        <v>2011</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Might Guy</t>
+          <t>Umino Iruka</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -916,22 +996,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/100216.jpg?s=8ce41c2857b1d19260f46e114cc9d158</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>728</v>
+        <v>2039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Momochi Zabuza</t>
+          <t>Haku</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -945,22 +1025,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/103706.jpg?s=4550a5e0c0af5a9f355a000386954d38</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103707.jpg?s=6f30c87be8eabac48a20071677fd972c</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>809</v>
+        <v>2174</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mitarashi Anko</t>
+          <t>Temari</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -974,22 +1054,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/292452.jpg?s=81c9799689a262a4df639b3dd5c48bc3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1555</v>
+        <v>2405</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hyuuga Hinata</t>
+          <t>Yakushi Kabuto</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -999,26 +1079,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>9320889</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/278736.jpg?s=efc87a537d323edc47900cb08e1722c9</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1662</v>
+        <v>2423</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gaara</t>
+          <t>Jiraiya</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1032,22 +1112,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/68618.jpg?s=ec35c8f49aa4cd7389bfc36d30cda3d7</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1694</v>
+        <v>2455</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hyuuga Neji</t>
+          <t>Orochimaru</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1061,22 +1141,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/105538.jpg?s=7603e3986722997b66259d9fea83a3b2</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/162089.jpg?s=77b65c6a4dfa133ef211d805af39d986</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1902</v>
+        <v>2535</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deidara</t>
+          <t>Namikaze Minato</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1090,22 +1170,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/131319.jpg?s=02bd30a045b2aaabf13e22a0149845e2</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/128074.jpg?s=3c25d6b03a654401141036f32b6e9b8b</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3/6/2023</t>
+          <t>18/7/2022</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2672</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nara Shikamaru</t>
+          <t>Hoshigaki Kisame</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1115,26 +1195,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>9825092</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/131315.jpg?s=a800fe970f638eae38b1e50d3471121d</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/433351.jpg?s=46d6b63938f0ab6572f96798dd4fba85</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2766</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Akimichi Chouji</t>
+          <t>Pakkun</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1148,22 +1228,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2767</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yamanaka Ino</t>
+          <t>Tsunade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1177,22 +1257,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/60062.jpg?s=bd8ff387569eebde9eb9af3d2a7feefc</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2011</v>
+        <v>2792</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Umino Iruka</t>
+          <t>Hidan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1206,22 +1286,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/100216.jpg?s=8ce41c2857b1d19260f46e114cc9d158</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2039</v>
+        <v>3052</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Haku</t>
+          <t>Tayuya</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1235,28 +1315,28 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103707.jpg?s=6f30c87be8eabac48a20071677fd972c</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/295205.jpg?s=cfb4d415aa30d426753c0aa1c14cbc2e</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2174</v>
+        <v>3150</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Temari</t>
+          <t>Zetsu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1264,22 +1344,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/292452.jpg?s=81c9799689a262a4df639b3dd5c48bc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/76260.jpg?s=f677ce2557f67393a92943f4b21270ab</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2405</v>
+        <v>3178</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yakushi Kabuto</t>
+          <t>Kakuzu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1293,22 +1373,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/255727.jpg?s=5c401401ec96dc333b18486cef42c242</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2423</v>
+        <v>3179</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jiraiya</t>
+          <t>Konan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1322,22 +1402,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/68618.jpg?s=ec35c8f49aa4cd7389bfc36d30cda3d7</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/158755.jpg?s=511521e3840779df9fba75ea5a4b9b52</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2455</v>
+        <v>3180</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Orochimaru</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1351,22 +1431,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/162089.jpg?s=77b65c6a4dfa133ef211d805af39d986</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/73473.jpg?s=5c41288db6aa7a2339a4ff90ea211d49</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2535</v>
+        <v>3428</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Namikaze Minato</t>
+          <t>Aburame Shino</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1380,22 +1460,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/128074.jpg?s=3c25d6b03a654401141036f32b6e9b8b</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/292449.jpg?s=f7b8f2084a65d22cd9381f25a55f8b2f</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2672</v>
+        <v>3438</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hoshigaki Kisame</t>
+          <t>Kimimaro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1409,22 +1489,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/433351.jpg?s=46d6b63938f0ab6572f96798dd4fba85</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103598.jpg?s=08ed0fcffe945f96b93afd9f48bd18b5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2766</v>
+        <v>3495</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pakkun</t>
+          <t>Inuzuka Kiba</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1438,22 +1518,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/131217.jpg?s=d3bc94609e7a552ec522daf99834c21a</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2767</v>
+        <v>3710</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tsunade</t>
+          <t>Tenten</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1467,22 +1547,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110946.jpg?s=babf65fba5bfda45c8c6dc400669b6cb</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2792</v>
+        <v>3735</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hidan</t>
+          <t>Shiranui Genma</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1492,26 +1572,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>9946038</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3052</v>
+        <v>3889</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tayuya</t>
+          <t>Sarutobi Konohamaru</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1525,22 +1605,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/295205.jpg?s=cfb4d415aa30d426753c0aa1c14cbc2e</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/109419.jpg?s=818d5a433ba71a276feb67578ccf711a</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3150</v>
+        <v>4223</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Zetsu</t>
+          <t>Gamabunta</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1554,22 +1634,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/76260.jpg?s=f677ce2557f67393a92943f4b21270ab</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/70846.jpg?s=6516b681e86fa72587edc431286fdcc2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3178</v>
+        <v>4643</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kakuzu</t>
+          <t>Shizune</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1579,26 +1659,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/255727.jpg?s=5c401401ec96dc333b18486cef42c242</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103794.jpg?s=34f7e533eadf02840c039b3bc4f40f06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3179</v>
+        <v>4694</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Konan</t>
+          <t>Kankurou</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1612,22 +1692,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/158755.jpg?s=511521e3840779df9fba75ea5a4b9b52</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/68615.jpg?s=6f6d40205ea049c4a579e6a2d756daa0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3180</v>
+        <v>4773</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Yuuhi Kurenai</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1641,22 +1721,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/73473.jpg?s=5c41288db6aa7a2339a4ff90ea211d49</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3428</v>
+        <v>4775</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aburame Shino</t>
+          <t>Sarutobi Asuma</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1670,22 +1750,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292449.jpg?s=f7b8f2084a65d22cd9381f25a55f8b2f</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/82538.jpg?s=5196f696350f23474767acdf6efc6b8f</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3438</v>
+        <v>4799</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kimimaro</t>
+          <t>Akamaru</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1699,22 +1779,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103598.jpg?s=08ed0fcffe945f96b93afd9f48bd18b5</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/58197.jpg?s=72fb82b5f99c06ba07d67f7e0c845aec</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3495</v>
+        <v>5737</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Inuzuka Kiba</t>
+          <t>Isaribi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1728,22 +1808,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/131217.jpg?s=d3bc94609e7a552ec522daf99834c21a</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/5/2020</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3710</v>
+        <v>7310</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tenten</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1757,22 +1837,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110946.jpg?s=babf65fba5bfda45c8c6dc400669b6cb</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3735</v>
+        <v>7407</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shiranui Genma</t>
+          <t>Kurama</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1786,22 +1866,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3889</v>
+        <v>7571</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sarutobi Konohamaru</t>
+          <t>Sarutobi Hiruzen</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1815,22 +1895,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/109419.jpg?s=818d5a433ba71a276feb67578ccf711a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4223</v>
+        <v>7608</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gamabunta</t>
+          <t>Katsuyu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1844,28 +1924,28 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/70846.jpg?s=6516b681e86fa72587edc431286fdcc2</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4643</v>
+        <v>7738</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shizune</t>
+          <t>Gekkou Hayate</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1873,22 +1953,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103794.jpg?s=34f7e533eadf02840c039b3bc4f40f06</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4694</v>
+        <v>8495</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kankurou</t>
+          <t>Jiroubou</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1902,22 +1982,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/68615.jpg?s=6f6d40205ea049c4a579e6a2d756daa0</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9/1/2023</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4773</v>
+        <v>8497</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Yuuhi Kurenai</t>
+          <t>Kidoumaru</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1931,22 +2011,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4775</v>
+        <v>8760</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sarutobi Asuma</t>
+          <t>Sakon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1960,22 +2040,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/82538.jpg?s=5196f696350f23474767acdf6efc6b8f</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4799</v>
+        <v>8771</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Akamaru</t>
+          <t>Kurosuki Raiga</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1989,22 +2069,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/58197.jpg?s=72fb82b5f99c06ba07d67f7e0c845aec</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5737</v>
+        <v>8810</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Isaribi</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2014,26 +2094,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>9908106</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6598</v>
+        <v>8997</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rokushou Aoi</t>
+          <t>Abumi Zaku</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2047,22 +2127,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57902.jpg?s=7f98276b2da7d5d6bf43aa6eb5175a82</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7310</v>
+        <v>9244</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Kinuta Dosu</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2076,22 +2156,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7407</v>
+        <v>9680</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kurama</t>
+          <t>Tsuchi Kin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2105,22 +2185,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/1/2022</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7571</v>
+        <v>9699</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sarutobi Hiruzen</t>
+          <t>Akado Yoroi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2134,28 +2214,28 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7608</v>
+        <v>10013</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Katsuyu</t>
+          <t>Uchiha Sasuke</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>MAIN</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2163,22 +2243,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7738</v>
+        <v>10014</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gekkou Hayate</t>
+          <t>Uchiha Itachi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2192,22 +2272,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8495</v>
+        <v>10524</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jiroubou</t>
+          <t>Seimei</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2221,22 +2301,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8497</v>
+        <v>10697</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kidoumaru</t>
+          <t>Aburame Shibi</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2250,22 +2330,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8760</v>
+        <v>10698</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sakon</t>
+          <t>Akahoshi</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2279,22 +2359,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8771</v>
+        <v>10699</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kurosuki Raiga</t>
+          <t>Akimichi Chouza</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2304,26 +2384,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8810</v>
+        <v>10700</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Akio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2337,22 +2417,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8997</v>
+        <v>10791</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Abumi Zaku</t>
+          <t>Ebisu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2362,26 +2442,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9244</v>
+        <v>11813</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kinuta Dosu</t>
+          <t>Shukaku</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2395,22 +2475,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9680</v>
+        <v>12464</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tsuchi Kin</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2420,26 +2500,26 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20</v>
+        <v>9097708</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9699</v>
+        <v>12465</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Akado Yoroi</t>
+          <t>Senju Tobirama</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2453,22 +2533,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10307</v>
+        <v>12563</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Might Guy</t>
+          <t>Hyuuga Hanabi</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2482,22 +2562,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103576.jpg?s=5da52d3d6d0b921506ffe65a8ff3288f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>22/7/2022</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10524</v>
+        <v>12766</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Seimei</t>
+          <t>Pakkun</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2511,22 +2591,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10697</v>
+        <v>13017</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aburame Shibi</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2540,22 +2620,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10698</v>
+        <v>13454</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Akahoshi</t>
+          <t>Kazamatsuri Moegi</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2569,22 +2649,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10699</v>
+        <v>14032</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Akimichi Chouza</t>
+          <t>Kamizuki Izumo</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2598,22 +2678,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10700</v>
+        <v>15039</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Akio</t>
+          <t>Hyuuga Hiashi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2627,22 +2707,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10791</v>
+        <v>15045</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ebisu</t>
+          <t>Uzuki Yugao</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2656,22 +2736,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10809</v>
+        <v>15072</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mitarashi Anko</t>
+          <t>Yamanaka Inoichi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2685,22 +2765,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11662</v>
+        <v>15073</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Gaara</t>
+          <t>Inuzuka Hana</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2714,22 +2794,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/293375.jpg?s=ceeb8ed1578737104c8e347ab7a52101</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11813</v>
+        <v>15074</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Shukaku</t>
+          <t>Inuzuka Tsume</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2743,22 +2823,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>24/3/2023</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12464</v>
+        <v>15077</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Senju Hashirama</t>
+          <t>Tsunami</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2772,22 +2852,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>12465</v>
+        <v>15081</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Baki</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2801,22 +2881,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12563</v>
+        <v>15145</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hyuuga Hanabi</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2830,22 +2910,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>12792</v>
+        <v>15176</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidan</t>
+          <t>Fuuma Kamikiri</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2859,22 +2939,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103578.jpg?s=389d90926039f796c2095de3c61a8d62</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>13017</v>
+        <v>15177</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Fuuma Sasame</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2888,22 +2968,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>13454</v>
+        <v>15178</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kazamatsuri Moegi</t>
+          <t>Haruna</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2917,22 +2997,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13735</v>
+        <v>15179</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Shiranui Genma</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2946,22 +3026,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/104664.jpg?s=c798fbee0f73d81fe48f11306ce056bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>14032</v>
+        <v>15757</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kamizuki Izumo</t>
+          <t>Enma</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2975,22 +3055,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/10/2020</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>14773</v>
+        <v>15759</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Yuuhi Kurenai</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3004,22 +3084,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/103797.jpg?s=01189fc7f8a526c4fd60ecb124f7065f</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15039</v>
+        <v>16164</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hyuuga Hiashi</t>
+          <t>Gouzu</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3033,22 +3113,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15045</v>
+        <v>16165</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3062,22 +3142,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>15072</v>
+        <v>16304</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Hagane Kotetsu</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3091,22 +3171,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15073</v>
+        <v>16321</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3120,22 +3200,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>15074</v>
+        <v>16952</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Gamatatsu</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3149,22 +3229,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>15077</v>
+        <v>16973</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Uchiha Fugaku</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3178,22 +3258,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>15081</v>
+        <v>16974</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Baki</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3207,22 +3287,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/8/2023</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>15145</v>
+        <v>16975</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -3232,26 +3312,26 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20</v>
+        <v>9159511</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15176</v>
+        <v>16976</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fuuma Kamikiri</t>
+          <t>Wasabi Jirouchou</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -3265,22 +3345,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>15177</v>
+        <v>16999</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Gamakichi</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -3294,22 +3374,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15178</v>
+        <v>17165</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Haruna</t>
+          <t>Chishima</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -3323,22 +3403,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>15179</v>
+        <v>17197</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Tazuna</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -3348,26 +3428,26 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>9611949</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>8/7/2021</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>15737</v>
+        <v>17199</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Isaribi</t>
+          <t>Genno</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -3381,22 +3461,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62784.jpg?s=140636f2e1b1900b23b503bfc3a72627</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>15757</v>
+        <v>17200</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Enma</t>
+          <t>Todoroki</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -3410,22 +3490,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>15759</v>
+        <v>17298</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mizura</t>
+          <t>Namiashi Raidou</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -3439,22 +3519,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16164</v>
+        <v>17302</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Gouzu</t>
+          <t>Karashi</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -3468,22 +3548,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>16165</v>
+        <v>17305</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Ryuugan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -3497,22 +3577,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>16304</v>
+        <v>17307</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Hikyakuya Fukusuke</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -3522,26 +3602,26 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16321</v>
+        <v>17310</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Ayame</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3555,22 +3635,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16952</v>
+        <v>17312</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gamatatsu</t>
+          <t>Teuchi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3584,22 +3664,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>16973</v>
+        <v>17313</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Fuuma Jigumo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3613,22 +3693,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>16974</v>
+        <v>17316</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Fuuma Arashi</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3642,22 +3722,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16975</v>
+        <v>17414</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Ranmaru</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3671,22 +3751,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>16976</v>
+        <v>17424</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Hokushin</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3700,22 +3780,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>17/4/2021</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>16999</v>
+        <v>17425</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Gamakichi</t>
+          <t>Renga</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3729,22 +3809,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17165</v>
+        <v>17535</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chishima</t>
+          <t>Genzou</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -3758,22 +3838,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17197</v>
+        <v>17536</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Gatsu</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -3787,22 +3867,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17199</v>
+        <v>17537</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Genno</t>
+          <t>Dengaku</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -3816,22 +3896,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17200</v>
+        <v>17538</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Todoroki</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -3841,26 +3921,26 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>9661762</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17298</v>
+        <v>17539</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Namiashi Raidou</t>
+          <t>Hokuto</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -3874,22 +3954,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17302</v>
+        <v>17540</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Karashi</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -3899,26 +3979,26 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>9032505</v>
+        <v>20</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17305</v>
+        <v>17541</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Nagare</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -3928,26 +4008,26 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>9670966</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17307</v>
+        <v>17542</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hikyakuya Fukusuke</t>
+          <t>Nanafushi</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -3957,26 +4037,26 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17310</v>
+        <v>17544</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ayame</t>
+          <t>Kazabune</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -3990,22 +4070,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17312</v>
+        <v>17545</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Teuchi</t>
+          <t>Kurama Yakumo</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4019,22 +4099,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17313</v>
+        <v>17546</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fuuma Jigumo</t>
+          <t>Sazanami</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4048,22 +4128,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>4/5/2021</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17316</v>
+        <v>17547</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fuuma Arashi</t>
+          <t>Senta</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4077,22 +4157,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>12/11/2021</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17414</v>
+        <v>17548</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ranmaru</t>
+          <t>Shinemon</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4106,22 +4186,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17424</v>
+        <v>17549</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hokushin</t>
+          <t>Yajirobee</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4135,22 +4215,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17425</v>
+        <v>17551</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Renga</t>
+          <t>Tanzou</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4160,26 +4240,26 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17535</v>
+        <v>17552</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Genzou</t>
+          <t>Waraji</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4193,22 +4273,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12/9/2020</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17536</v>
+        <v>17553</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gatsu</t>
+          <t>Yamashiro Aoba</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4222,22 +4302,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17537</v>
+        <v>17557</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dengaku</t>
+          <t>Kamizuru Jibachi</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4251,22 +4331,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17538</v>
+        <v>17619</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Oboro</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4280,22 +4360,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17539</v>
+        <v>17666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4305,26 +4385,26 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>17540</v>
+        <v>18056</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Nara Shikaku</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4334,26 +4414,26 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20</v>
+        <v>9359756</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>17541</v>
+        <v>18810</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nagare</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -4367,22 +4447,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>17542</v>
+        <v>19253</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nanafushi</t>
+          <t>Touji Mizuki</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4396,22 +4476,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>17543</v>
+        <v>19680</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nan</t>
+          <t>Tsuchi Kin</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -4425,22 +4505,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>17544</v>
+        <v>20274</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Giichi</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -4450,26 +4530,26 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17545</v>
+        <v>20276</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kurama Yakumo</t>
+          <t>Jantou</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -4479,26 +4559,26 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>17546</v>
+        <v>20277</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Kusabi</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -4512,22 +4592,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>15/12/2021</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>17547</v>
+        <v>20278</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Senta</t>
+          <t>Hachidai</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -4541,22 +4621,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17548</v>
+        <v>20279</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Shinemon</t>
+          <t>Hakkaku</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -4570,22 +4650,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>28/12/2023</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17549</v>
+        <v>20645</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Yajirobee</t>
+          <t>Akane</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -4599,22 +4679,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>17551</v>
+        <v>21122</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tanzou</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -4628,22 +4708,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>17552</v>
+        <v>21365</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -4657,22 +4737,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>17553</v>
+        <v>22247</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Nara Yoshino</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -4686,22 +4766,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>17557</v>
+        <v>22248</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Karura</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -4715,22 +4795,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>17608</v>
+        <v>22648</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Katsuyu</t>
+          <t>Mitokado Homura</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4744,22 +4824,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>18/12/2022</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17619</v>
+        <v>22649</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Oboro</t>
+          <t>Utatane Koharu</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -4773,22 +4853,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17666</v>
+        <v>22876</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Katou Dan</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -4802,22 +4882,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>18056</v>
+        <v>22880</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Hyuuga Hizashi</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -4827,26 +4907,26 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>18497</v>
+        <v>22884</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Kidoumaru</t>
+          <t>Nawaki</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -4860,22 +4940,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>18760</v>
+        <v>22889</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sakon</t>
+          <t>Uchiha Tekka</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4889,22 +4969,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>18810</v>
+        <v>22891</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4918,22 +4998,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>19253</v>
+        <v>22908</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Touji Mizuki</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -4943,26 +5023,26 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20</v>
+        <v>9178480</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/3/2022</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>19699</v>
+        <v>22920</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Akado Yoroi</t>
+          <t>Rasa</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -4976,22 +5056,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20274</v>
+        <v>22921</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Giichi</t>
+          <t>Tsurugi Misumi</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -5005,22 +5085,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>20276</v>
+        <v>22922</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Genyuumaru</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -5034,22 +5114,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>20277</v>
+        <v>22923</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kusabi</t>
+          <t>Morino Ibiki</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -5063,51 +5143,51 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>20278</v>
+        <v>22931</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hachidai</t>
+          <t>Zouri</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9153996</v>
+        <v>20</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>20279</v>
+        <v>22996</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hakkaku</t>
+          <t>Kaiza</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -5121,22 +5201,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>20645</v>
+        <v>23006</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Akane</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -5150,22 +5230,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>20697</v>
+        <v>23017</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Aburame Shibi</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -5179,22 +5259,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>20699</v>
+        <v>23052</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Akimichi Chouza</t>
+          <t>Ise Udon</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -5208,22 +5288,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>21122</v>
+        <v>23053</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Hiruko</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -5237,22 +5317,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>21365</v>
+        <v>23056</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -5266,22 +5346,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>22247</v>
+        <v>23081</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Baiu</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -5295,22 +5375,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>22248</v>
+        <v>23083</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Karura</t>
+          <t>Midare</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -5320,26 +5400,26 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20</v>
+        <v>9654843</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>22465</v>
+        <v>23140</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Tobitake Tonbo</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -5353,22 +5433,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22648</v>
+        <v>23143</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -5382,22 +5462,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>29/2/2022</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>22649</v>
+        <v>23144</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -5411,22 +5491,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22876</v>
+        <v>23145</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Katou Dan</t>
+          <t>Shiba</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -5440,22 +5520,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>22880</v>
+        <v>23153</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hyuuga Hizashi</t>
+          <t>Shiore</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -5469,22 +5549,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>22881</v>
+        <v>23154</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kuromaru</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -5498,22 +5578,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22884</v>
+        <v>23155</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nawaki</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -5527,22 +5607,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22889</v>
+        <v>23156</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Uchiha Tekka</t>
+          <t>Shibire</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -5556,22 +5636,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>22891</v>
+        <v>23215</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -5585,22 +5665,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22908</v>
+        <v>23569</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Guruko</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -5614,22 +5694,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>22920</v>
+        <v>23759</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Tatami Iwashi</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -5643,22 +5723,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>22921</v>
+        <v>24324</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Tobio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -5672,22 +5752,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>22922</v>
+        <v>25145</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Genyuumaru</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -5701,22 +5781,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>22923</v>
+        <v>25179</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Morino Ibiki</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -5730,22 +5810,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>22931</v>
+        <v>26974</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Zouri</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -5759,22 +5839,22 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>22996</v>
+        <v>27538</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -5788,22 +5868,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23006</v>
+        <v>27540</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -5817,22 +5897,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>23052</v>
+        <v>27688</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -5842,26 +5922,26 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20</v>
+        <v>9162336</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23053</v>
+        <v>31122</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Hiruko</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -5875,22 +5955,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23056</v>
+        <v>31197</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -5904,22 +5984,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>23081</v>
+        <v>31365</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Baiu</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -5933,22 +6013,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>23083</v>
+        <v>31828</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Midare</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -5962,22 +6042,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>23140</v>
+        <v>32891</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tobitake Tonbo</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -5991,22 +6071,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>23143</v>
+        <v>32908</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -6020,22 +6100,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>23144</v>
+        <v>33056</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -6049,22 +6129,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>23145</v>
+        <v>33143</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -6078,22 +6158,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>23153</v>
+        <v>33144</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Shiore</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -6107,18 +6187,18 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>23154</v>
+        <v>33154</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6141,17 +6221,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>23155</v>
+        <v>33215</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hijiri Shimon</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -6165,22 +6245,22 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>23156</v>
+        <v>34075</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Shibire</t>
+          <t>Bisuke</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -6194,22 +6274,22 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>23215</v>
+        <v>37929</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Manda</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -6223,22 +6303,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>23569</v>
+        <v>41366</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Guruko</t>
+          <t>Ukon</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -6252,22 +6332,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>6/11/2023</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>23759</v>
+        <v>41828</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tatami Iwashi</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6281,22 +6361,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>24324</v>
+        <v>43923</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tobio</t>
+          <t>Kunihisa</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -6310,22 +6390,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>25045</v>
+        <v>43924</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Kunijirou</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6339,22 +6419,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>25072</v>
+        <v>43972</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6368,22 +6448,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>25073</v>
+        <v>46605</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -6397,22 +6477,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>25074</v>
+        <v>50957</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -6426,22 +6506,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25077</v>
+        <v>53972</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -6455,22 +6535,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>25177</v>
+        <v>56605</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -6484,22 +6564,22 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>25179</v>
+        <v>60957</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -6513,22 +6593,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>26165</v>
+        <v>63793</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Gatou</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -6542,22 +6622,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>13/8/2023</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>26304</v>
+        <v>67289</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Haruno Mebuki</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -6571,28 +6651,28 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>26321</v>
+        <v>77693</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Natsuhi</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6600,22 +6680,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>26973</v>
+        <v>82609</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -6629,22 +6709,22 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>26976</v>
+        <v>83755</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -6658,22 +6738,22 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>27197</v>
+        <v>88313</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Hakus Mother</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -6683,26 +6763,26 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>20</v>
+        <v>9336544</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>27305</v>
+        <v>90849</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Tonton</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -6716,22 +6796,22 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>17/11/2022</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>27538</v>
+        <v>91137</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Kujaku</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -6741,26 +6821,26 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>9601122</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>27539</v>
+        <v>92609</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -6774,28 +6854,28 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>27540</v>
+        <v>129493</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Kurama Unkai</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -6803,22 +6883,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>27544</v>
+        <v>149421</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Akame Iwana</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -6832,22 +6912,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>31/3/2022</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>27546</v>
+        <v>149422</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Bekkou</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -6861,22 +6941,22 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>27552</v>
+        <v>149423</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Ibara</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -6890,22 +6970,22 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>27553</v>
+        <v>149424</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -6919,22 +6999,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>27557</v>
+        <v>160858</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Fukuyokana</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -6948,22 +7028,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>27666</v>
+        <v>160859</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Shinayakana</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -6977,22 +7057,22 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>27688</v>
+        <v>161288</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Fuuma Kotohime</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -7006,22 +7086,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>28056</v>
+        <v>197866</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Kamizuru Kurobachi</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7031,26 +7111,26 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>30276</v>
+        <v>197867</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Kamizuru Suzumebachi</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -7060,26 +7140,26 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>31197</v>
+        <v>206139</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Morino Idate</t>
+          <t>Momiji</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -7093,22 +7173,22 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>31365</v>
+        <v>206141</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Kagero</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -7122,22 +7202,22 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>31828</v>
+        <v>206142</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Raijin</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7151,22 +7231,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>32247</v>
+        <v>206143</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -7176,26 +7256,26 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>20</v>
+        <v>9949762</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>32648</v>
+        <v>206144</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Koumei</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -7209,22 +7289,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>32649</v>
+        <v>206145</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Ruiga</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -7238,22 +7318,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>32920</v>
+        <v>227807</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -7263,26 +7343,26 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>32921</v>
+        <v>227808</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Kagetsu Toubei</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -7296,22 +7376,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>32996</v>
+        <v>227809</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -7321,26 +7401,26 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20</v>
+        <v>9877806</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>33006</v>
+        <v>227810</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Kagetsu Mai</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -7354,22 +7434,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>33052</v>
+        <v>227811</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Kikunojou</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -7383,22 +7463,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>33143</v>
+        <v>227812</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Sanjurou Shura</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7412,22 +7492,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>33145</v>
+        <v>227898</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Yurinojou</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7441,22 +7521,22 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>34075</v>
+        <v>227899</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Bisuke</t>
+          <t>Hanzaki</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -7466,26 +7546,26 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9920197</v>
+        <v>20</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>37929</v>
+        <v>227900</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -7499,22 +7579,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>41366</v>
+        <v>234151</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ukon</t>
+          <t>Narrator</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -7524,26 +7604,26 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9824943</v>
+        <v>20</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
+          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>41828</v>
+        <v>237807</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -7557,22 +7637,22 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>43923</v>
+        <v>245051</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Kunihisa</t>
+          <t>Wagarashi Kyuuroku</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -7586,22 +7666,22 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>43924</v>
+        <v>251508</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kunijirou</t>
+          <t>Rokusuke</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -7615,22 +7695,22 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>43972</v>
+        <v>251515</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Sangorou</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -7644,22 +7724,22 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>46605</v>
+        <v>251571</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Sukeza</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -7673,22 +7753,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>47929</v>
+        <v>251864</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Gosunkugi</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -7702,22 +7782,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>50957</v>
+        <v>251865</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Manaka Michizou</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -7727,26 +7807,26 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20</v>
+        <v>9256244</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>53972</v>
+        <v>252501</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Potcha</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -7760,22 +7840,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2/11/2022</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>63793</v>
+        <v>252721</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Gatou</t>
+          <t>Oowashi</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -7785,26 +7865,26 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9560061</v>
+        <v>20</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>67289</v>
+        <v>252722</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Haruno Mebuki</t>
+          <t>Amachi</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -7814,26 +7894,26 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>9487444</v>
+        <v>20</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>77693</v>
+        <v>252723</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Natsuhi</t>
+          <t>Hitode</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -7843,26 +7923,26 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>82609</v>
+        <v>252724</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Kaisen Agari</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -7876,22 +7956,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>83755</v>
+        <v>252725</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Gantetsu</t>
+          <t>Hotarubi</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -7901,26 +7981,26 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20</v>
+        <v>9893185</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>88313</v>
+        <v>252726</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Hakus Mother</t>
+          <t>Shisou</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -7934,22 +8014,22 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>90849</v>
+        <v>252729</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tonton</t>
+          <t>Kagetsu Kiyoyasu</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -7963,22 +8043,22 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>91137</v>
+        <v>252730</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kujaku</t>
+          <t>Jiga</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -7988,26 +8068,26 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>9801595</v>
+        <v>20</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>129493</v>
+        <v>252731</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kurama Unkai</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -8021,22 +8101,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>149421</v>
+        <v>252732</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Akame Iwana</t>
+          <t>Fuku</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8050,22 +8130,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>149422</v>
+        <v>252733</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Bekkou</t>
+          <t>Kayo</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -8079,22 +8159,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>24/8/2023</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>149423</v>
+        <v>252734</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Kubisaki Kouza</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -8108,22 +8188,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>149424</v>
+        <v>252737</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Ryuudouin Genshou</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -8137,22 +8217,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>159423</v>
+        <v>252738</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Yagura</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -8166,22 +8246,22 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>160858</v>
+        <v>252741</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Ryuudouin Agira</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -8195,22 +8275,22 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>23/2/2023</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>160859</v>
+        <v>252742</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Shinayakana</t>
+          <t>Ryuudouin Jakou</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -8224,22 +8304,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>161288</v>
+        <v>252743</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sanshou</t>
+          <t>Ryuudouin Rokkaku</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -8253,22 +8333,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>25/9/2021</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>170858</v>
+        <v>252779</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Kanna</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -8282,22 +8362,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>197866</v>
+        <v>252908</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Kamizuru Kurobachi</t>
+          <t>Kurama Uroko</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -8307,26 +8387,26 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>9216787</v>
+        <v>20</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>197867</v>
+        <v>252909</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Kurama Murakumo</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -8340,22 +8420,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>206139</v>
+        <v>252910</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Momiji</t>
+          <t>Monju</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -8365,26 +8445,26 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20</v>
+        <v>9398825</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>206141</v>
+        <v>252911</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Kagero</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -8394,26 +8474,26 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>206142</v>
+        <v>252912</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Raijin</t>
+          <t>Tsuzumi</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -8423,26 +8503,26 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20</v>
+        <v>9311760</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>14/10/2023</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>206143</v>
+        <v>252915</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Fuki</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -8452,26 +8532,26 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>206144</v>
+        <v>252916</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Shiin</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -8485,22 +8565,22 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>8/10/2020</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>206145</v>
+        <v>252918</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ruiga</t>
+          <t>Suiko</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -8514,22 +8594,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>207867</v>
+        <v>255312</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Mozuku</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -8539,26 +8619,26 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20</v>
+        <v>9388821</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>216143</v>
+        <v>256932</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Madam Shijimi</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -8572,22 +8652,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>216144</v>
+        <v>262721</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Oowashi</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -8601,22 +8681,22 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2025-03-13 16:33:29</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>227807</v>
+        <v>262737</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Ryuudouin Genshou</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -8630,22 +8710,22 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>227808</v>
+        <v>262743</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Kagetsu Toubei</t>
+          <t>Ryuudouin Rokkaku</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -8659,22 +8739,22 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>227809</v>
+        <v>262915</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kagetsu Tsukiko</t>
+          <t>Fuki</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -8688,22 +8768,22 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>227810</v>
+        <v>267451</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Kagetsu Mai</t>
+          <t>Funeno Daikoku</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -8717,22 +8797,22 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>227811</v>
+        <v>267452</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kikunojou</t>
+          <t>Chouhan</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -8742,26 +8822,26 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9920694</v>
+        <v>20</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2025-03-13 16:38:33</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>227812</v>
+        <v>268346</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Sanjurou Shura</t>
+          <t>Hostesssan</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -8775,1491 +8855,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/586086.jpg?s=02e9fb0931709c294a6b2efb03592daf</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>28/11/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>227898</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Yurinojou</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>20</v>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
-        </is>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>227899</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Hanzaki</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>20</v>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>227900</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Houki</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>9466012</v>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>234151</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Narrator</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>20</v>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>237809</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Kagetsu Tsukiko</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>20</v>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>237812</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Sanjurou Shura</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>20</v>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>237900</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Houki</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>20</v>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>245051</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Wagarashi Kyuuroku</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>20</v>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>251508</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Rokusuke</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>20</v>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>251515</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Sangorou</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>20</v>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>251571</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Sukeza</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0</v>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>251864</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Gosunkugi</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>20</v>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>251865</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Manaka Michizou</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>20</v>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>21/1/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>252501</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Potcha</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>20</v>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>252721</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Oowashi</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>0</v>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>252722</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Amachi</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>20</v>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>18/1/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>252723</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Hitode</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>20</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>252724</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Kaisen Agari</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>20</v>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>252725</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Hotarubi</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>20</v>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>252726</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Shisou</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>20</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>252729</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Kagetsu Kiyoyasu</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>20</v>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>252730</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Jiga</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>20</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>252731</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Chikara</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
-        <v>20</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>252732</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Fuku</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>20</v>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>252733</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Kayo</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
-        <v>20</v>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>252734</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Kubisaki Kouza</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E317" t="n">
-        <v>20</v>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>252737</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Ryuudouin Genshou</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>20</v>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>252738</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Yagura</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v>20</v>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>252741</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Ryuudouin Agira</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>20</v>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
-        </is>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>252742</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Ryuudouin Jakou</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v>20</v>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>252743</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Ryuudouin Rokkaku</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E322" t="n">
-        <v>20</v>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
-        </is>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>6/9/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>252779</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Kanna</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E323" t="n">
-        <v>9951995</v>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
-        </is>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>252908</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Kurama Uroko</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E324" t="n">
-        <v>20</v>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
-        </is>
-      </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>252909</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Kurama Murakumo</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E325" t="n">
-        <v>20</v>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
-        </is>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>252910</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Monju</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E326" t="n">
-        <v>20</v>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
-        </is>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>252911</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Toki</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E327" t="n">
-        <v>9131714</v>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
-        </is>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>252912</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Tsuzumi</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>20</v>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
-        </is>
-      </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>252915</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Fuki</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E329" t="n">
-        <v>20</v>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
-        </is>
-      </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>252916</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Shiin</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E330" t="n">
-        <v>20</v>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>252918</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Suiko</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E331" t="n">
-        <v>20</v>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
-        </is>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>9/8/2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>255312</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Mozuku</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>20</v>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>15/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>256932</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Madam Shijimi</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
-        <v>20</v>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>261865</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Manaka Michizou</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>20</v>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>262721</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Oowashi</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>20</v>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>262723</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Hitode</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E336" t="n">
-        <v>20</v>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
-        </is>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>262730</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Jiga</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E337" t="n">
-        <v>20</v>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>262911</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Toki</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>20</v>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:33:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>267451</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Funeno Daikoku</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>20</v>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
-        </is>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>267452</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Chouhan</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>20</v>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:38:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>277451</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Funeno Daikoku</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E341" t="n">
-        <v>20</v>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>277452</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Chouhan</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>SUPPORTING</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>20</v>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>2025-03-13 16:37:48</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/db/cleaned_data.xlsx
+++ b/src/bigdata/static/db/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G291"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>12/6/2020</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/2/2021</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>9460492</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/9/2020</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>20/9/2022</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9320889</v>
+        <v>20</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>9779608</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/7/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9825092</v>
+        <v>20</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9946038</v>
+        <v>20</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
@@ -1813,17 +1813,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7310</v>
+        <v>6598</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Rokushou Aoi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1837,22 +1837,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57902.jpg?s=7f98276b2da7d5d6bf43aa6eb5175a82</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7407</v>
+        <v>7310</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kurama</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1866,22 +1866,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/57963.jpg?s=c8baf4f131a55b3a668382efff780e04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7571</v>
+        <v>7407</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sarutobi Hiruzen</t>
+          <t>Kurama</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1895,22 +1895,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/232183.jpg?s=4ab26e80928ae4a0a667ea3f21f72492</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7608</v>
+        <v>7571</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Katsuyu</t>
+          <t>Sarutobi Hiruzen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1920,26 +1920,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>9799565</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/68520.jpg?s=7d6e5e92c4a665933686d4ece2cbdbe1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7738</v>
+        <v>7608</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gekkou Hayate</t>
+          <t>Katsuyu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103624.jpg?s=6eb7e5dd0cc10240d5bd21f031727df6</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8495</v>
+        <v>7738</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jiroubou</t>
+          <t>Gekkou Hayate</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104665.jpg?s=07831eec08dd78aadb983fbd90a0aaf3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8497</v>
+        <v>8495</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kidoumaru</t>
+          <t>Jiroubou</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103579.jpg?s=bca26508367efa8f841f1a1b2aa6a6ea</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8760</v>
+        <v>8497</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sakon</t>
+          <t>Kidoumaru</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2036,26 +2036,26 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>9720413</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/103588.jpg?s=7824034e576090bc3629b0a15199374e</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8771</v>
+        <v>8760</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kurosuki Raiga</t>
+          <t>Sakon</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2069,22 +2069,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/105422.jpg?s=b0a8ccc9170d441273e13aab667e7423</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8810</v>
+        <v>8771</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Kurosuki Raiga</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2094,26 +2094,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>9908106</v>
+        <v>20</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/55519.jpg?s=4fa1eb310b181be1ec87beda4678672b</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8997</v>
+        <v>8810</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Abumi Zaku</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2127,22 +2127,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9244</v>
+        <v>8997</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kinuta Dosu</t>
+          <t>Abumi Zaku</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2156,22 +2156,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/36355.jpg?s=326e8671faaacb5fe6ce13fb931915a3</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9680</v>
+        <v>9244</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tsuchi Kin</t>
+          <t>Kinuta Dosu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2185,22 +2185,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9699</v>
+        <v>9680</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Akado Yoroi</t>
+          <t>Tsuchi Kin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2214,28 +2214,28 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10013</v>
+        <v>9699</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uchiha Sasuke</t>
+          <t>Akado Yoroi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2243,28 +2243,28 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104668.jpg?s=13e483e534221000f378d246d704204e</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Uchiha Itachi</t>
+          <t>Uchiha Sasuke</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>MAIN</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/131317.jpg?s=9705c17dba36c2edebded3a72dc1a46e</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2283,11 +2283,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10524</v>
+        <v>10014</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Seimei</t>
+          <t>Uchiha Itachi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/284122.jpg?s=11eac9672b208175831a0da62f188622</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2312,17 +2312,17 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10697</v>
+        <v>10145</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Aburame Shibi</t>
+          <t>Haruno Sakura</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>MAIN</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2330,22 +2330,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/69275.jpg?s=36c4ad9f4440d77918c34c49870e719c</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10698</v>
+        <v>10524</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Akahoshi</t>
+          <t>Seimei</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2359,22 +2359,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58450.jpg?s=ecf8baf8354ed6d885917d29476e06e9</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10699</v>
+        <v>10697</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Akimichi Chouza</t>
+          <t>Aburame Shibi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2388,22 +2388,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103841.jpg?s=c555bc6a75c48a6ab191b9dc75b46805</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10700</v>
+        <v>10698</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Akio</t>
+          <t>Akahoshi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2417,22 +2417,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>1/9/2022</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10791</v>
+        <v>10699</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ebisu</t>
+          <t>Akimichi Chouza</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2442,32 +2442,32 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103839.jpg?s=9bbeca695c99940d76131a1f9c78611b</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>6/12/2020</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11813</v>
+        <v>10700</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Shukaku</t>
+          <t>Akio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2475,22 +2475,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>12464</v>
+        <v>10728</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Senju Hashirama</t>
+          <t>Momochi Zabuza</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2500,26 +2500,26 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9097708</v>
+        <v>20</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/103706.jpg?s=4550a5e0c0af5a9f355a000386954d38</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>12465</v>
+        <v>10791</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Ebisu</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -2533,22 +2533,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/104660.jpg?s=ded9ad1ef8ed616f3cfba2974f822f7f</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12563</v>
+        <v>11813</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hyuuga Hanabi</t>
+          <t>Shukaku</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/7/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12766</v>
+        <v>12405</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pakkun</t>
+          <t>Yakushi Kabuto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2591,22 +2591,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13017</v>
+        <v>12464</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2616,26 +2616,26 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20</v>
+        <v>9085230</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13454</v>
+        <v>12465</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kazamatsuri Moegi</t>
+          <t>Senju Tobirama</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2649,22 +2649,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>14032</v>
+        <v>12563</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kamizuki Izumo</t>
+          <t>Hyuuga Hanabi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2678,22 +2678,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15039</v>
+        <v>12766</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hyuuga Hiashi</t>
+          <t>Pakkun</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -2718,11 +2718,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>15045</v>
+        <v>13017</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>15072</v>
+        <v>13454</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Kazamatsuri Moegi</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2765,22 +2765,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>15073</v>
+        <v>14032</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Kamizuki Izumo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2794,22 +2794,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15074</v>
+        <v>15039</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Hyuuga Hiashi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2823,22 +2823,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/3/2023</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15077</v>
+        <v>15045</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Uzuki Yugao</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2852,28 +2852,28 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>15081</v>
+        <v>15072</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Baki</t>
+          <t>Yamanaka Inoichi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2881,22 +2881,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15145</v>
+        <v>15073</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Inuzuka Hana</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15176</v>
+        <v>15074</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fuuma Kamikiri</t>
+          <t>Inuzuka Tsume</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15177</v>
+        <v>15077</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Tsunami</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2968,22 +2968,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15178</v>
+        <v>15081</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Haruna</t>
+          <t>Baki</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2993,26 +2993,26 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>9090684</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>15179</v>
+        <v>15145</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>15757</v>
+        <v>15176</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Enma</t>
+          <t>Fuuma Kamikiri</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3055,22 +3055,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>15759</v>
+        <v>15177</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mizura</t>
+          <t>Fuuma Sasame</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3084,22 +3084,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16164</v>
+        <v>15178</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gouzu</t>
+          <t>Haruna</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3109,26 +3109,26 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16165</v>
+        <v>15179</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3142,22 +3142,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16304</v>
+        <v>15757</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Enma</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3171,22 +3171,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>16321</v>
+        <v>15759</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3200,28 +3200,28 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16952</v>
+        <v>16164</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gamatatsu</t>
+          <t>Gouzu</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3229,22 +3229,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16973</v>
+        <v>16165</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3258,22 +3258,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16974</v>
+        <v>16304</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Hagane Kotetsu</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3287,22 +3287,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16975</v>
+        <v>16321</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -3312,26 +3312,26 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>9159511</v>
+        <v>20</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16976</v>
+        <v>16952</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Gamatatsu</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16999</v>
+        <v>16973</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Gamakichi</t>
+          <t>Uchiha Fugaku</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -3374,22 +3374,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>17165</v>
+        <v>16974</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chishima</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -3403,22 +3403,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>17197</v>
+        <v>16975</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -3428,26 +3428,26 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9611949</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>17199</v>
+        <v>16976</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Genno</t>
+          <t>Wasabi Jirouchou</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>17200</v>
+        <v>16999</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Todoroki</t>
+          <t>Gamakichi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -3490,22 +3490,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>17298</v>
+        <v>17165</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Namiashi Raidou</t>
+          <t>Chishima</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -3515,26 +3515,26 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20</v>
+        <v>9171485</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17302</v>
+        <v>17197</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Karashi</t>
+          <t>Tazuna</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -3544,26 +3544,26 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>17305</v>
+        <v>17199</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Genno</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -3577,22 +3577,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>17307</v>
+        <v>17200</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hikyakuya Fukusuke</t>
+          <t>Todoroki</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -3602,26 +3602,26 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17310</v>
+        <v>17298</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ayame</t>
+          <t>Namiashi Raidou</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3635,22 +3635,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17312</v>
+        <v>17302</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Teuchi</t>
+          <t>Karashi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3664,22 +3664,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>17313</v>
+        <v>17305</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fuuma Jigumo</t>
+          <t>Ryuugan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3689,26 +3689,26 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17316</v>
+        <v>17307</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fuuma Arashi</t>
+          <t>Hikyakuya Fukusuke</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3722,22 +3722,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17414</v>
+        <v>17310</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ranmaru</t>
+          <t>Ayame</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3751,22 +3751,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17424</v>
+        <v>17312</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hokushin</t>
+          <t>Teuchi</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3780,22 +3780,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17425</v>
+        <v>17313</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Renga</t>
+          <t>Fuuma Jigumo</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3809,22 +3809,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17535</v>
+        <v>17316</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Genzou</t>
+          <t>Fuuma Arashi</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -3838,22 +3838,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17536</v>
+        <v>17414</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Gatsu</t>
+          <t>Ranmaru</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17537</v>
+        <v>17424</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Dengaku</t>
+          <t>Hokushin</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -3896,22 +3896,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17538</v>
+        <v>17425</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Renga</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -3921,26 +3921,26 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>9661762</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17539</v>
+        <v>17535</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Genzou</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -3954,22 +3954,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>7/7/2021</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17540</v>
+        <v>17536</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Gatsu</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -3983,22 +3983,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17541</v>
+        <v>17537</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nagare</t>
+          <t>Dengaku</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4008,26 +4008,26 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>9670966</v>
+        <v>20</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17542</v>
+        <v>17538</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Nanafushi</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4041,22 +4041,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17544</v>
+        <v>17539</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Hokuto</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4070,22 +4070,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17545</v>
+        <v>17540</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Kurama Yakumo</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4099,22 +4099,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17546</v>
+        <v>17541</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Nagare</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17547</v>
+        <v>17542</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Senta</t>
+          <t>Nanafushi</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4157,22 +4157,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/11/2021</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17548</v>
+        <v>17543</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Shinemon</t>
+          <t>Nan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17549</v>
+        <v>17544</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Yajirobee</t>
+          <t>Kazabune</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4211,26 +4211,26 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17551</v>
+        <v>17545</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tanzou</t>
+          <t>Kurama Yakumo</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4240,26 +4240,26 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17552</v>
+        <v>17546</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Sazanami</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4273,22 +4273,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17553</v>
+        <v>17547</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Senta</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4298,26 +4298,26 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20</v>
+        <v>9033658</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17557</v>
+        <v>17548</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Shinemon</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4331,22 +4331,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17619</v>
+        <v>17549</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Oboro</t>
+          <t>Yajirobee</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4360,22 +4360,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17666</v>
+        <v>17551</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Tanzou</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4385,26 +4385,26 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>9/3/2020</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>18056</v>
+        <v>17552</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Waraji</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4414,26 +4414,26 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>9359756</v>
+        <v>20</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>18810</v>
+        <v>17553</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Yamashiro Aoba</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -4443,26 +4443,26 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19253</v>
+        <v>17557</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Touji Mizuki</t>
+          <t>Kamizuru Jibachi</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4476,22 +4476,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>19680</v>
+        <v>17619</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tsuchi Kin</t>
+          <t>Oboro</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -4505,22 +4505,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>20274</v>
+        <v>17666</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Giichi</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -4530,26 +4530,26 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>1/2/2020</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>20276</v>
+        <v>18056</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Nara Shikaku</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -4559,26 +4559,26 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>20277</v>
+        <v>18810</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kusabi</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -4592,22 +4592,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15/12/2021</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>20278</v>
+        <v>19244</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Hachidai</t>
+          <t>Kinuta Dosu</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>20279</v>
+        <v>19253</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Hakkaku</t>
+          <t>Touji Mizuki</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -4650,22 +4650,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20645</v>
+        <v>19680</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Akane</t>
+          <t>Tsuchi Kin</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -4690,11 +4690,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>21122</v>
+        <v>20274</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Giichi</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -4708,22 +4708,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>21365</v>
+        <v>20276</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Jantou</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -4737,22 +4737,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22247</v>
+        <v>20277</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Kusabi</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -4766,22 +4766,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22248</v>
+        <v>20278</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Karura</t>
+          <t>Hachidai</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -4795,22 +4795,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>28/5/2023</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22648</v>
+        <v>20279</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Hakkaku</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4824,22 +4824,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>22649</v>
+        <v>20645</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Akane</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -4853,22 +4853,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22876</v>
+        <v>20698</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Katou Dan</t>
+          <t>Akahoshi</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -4882,22 +4882,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>22880</v>
+        <v>21122</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hyuuga Hizashi</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>22884</v>
+        <v>21365</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nawaki</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -4940,22 +4940,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22889</v>
+        <v>22247</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Uchiha Tekka</t>
+          <t>Nara Yoshino</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -4980,11 +4980,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22891</v>
+        <v>22248</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Karura</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4998,22 +4998,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22908</v>
+        <v>22464</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -5023,26 +5023,26 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>9178480</v>
+        <v>20</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22920</v>
+        <v>22648</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Mitokado Homura</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -5056,22 +5056,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22921</v>
+        <v>22649</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Utatane Koharu</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -5085,22 +5085,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22922</v>
+        <v>22876</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Genyuumaru</t>
+          <t>Katou Dan</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -5114,22 +5114,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22923</v>
+        <v>22880</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Morino Ibiki</t>
+          <t>Hyuuga Hizashi</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -5143,28 +5143,28 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>22931</v>
+        <v>22881</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Zouri</t>
+          <t>Kuromaru</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5172,22 +5172,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>22996</v>
+        <v>22884</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Nawaki</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -5201,22 +5201,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>23006</v>
+        <v>22889</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Uchiha Tekka</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -5230,22 +5230,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>23017</v>
+        <v>22891</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -5259,22 +5259,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23052</v>
+        <v>22908</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -5288,22 +5288,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>23053</v>
+        <v>22920</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Hiruko</t>
+          <t>Rasa</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -5317,22 +5317,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>23056</v>
+        <v>22921</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Tsurugi Misumi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -5342,26 +5342,26 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>23081</v>
+        <v>22922</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Baiu</t>
+          <t>Genyuumaru</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -5375,22 +5375,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>23083</v>
+        <v>22923</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Midare</t>
+          <t>Morino Ibiki</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -5400,26 +5400,26 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9654843</v>
+        <v>20</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>23140</v>
+        <v>22931</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tobitake Tonbo</t>
+          <t>Zouri</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -5433,22 +5433,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>23143</v>
+        <v>22996</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Kaiza</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -5462,22 +5462,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>29/2/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23144</v>
+        <v>23006</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -5491,22 +5491,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>23145</v>
+        <v>23017</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -5531,11 +5531,11 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>23153</v>
+        <v>23052</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Shiore</t>
+          <t>Ise Udon</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -5549,22 +5549,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>23154</v>
+        <v>23053</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>Hiruko</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -5578,22 +5578,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>23155</v>
+        <v>23056</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hijiri Shimon</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -5607,22 +5607,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23156</v>
+        <v>23081</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Shibire</t>
+          <t>Baiu</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>23215</v>
+        <v>23083</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Midare</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -5661,26 +5661,26 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23569</v>
+        <v>23140</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Guruko</t>
+          <t>Tobitake Tonbo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -5694,22 +5694,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23759</v>
+        <v>23143</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tatami Iwashi</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -5723,22 +5723,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24324</v>
+        <v>23144</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tobio</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -5748,26 +5748,26 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>9888779</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25145</v>
+        <v>23145</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Shiba</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -5781,22 +5781,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>25179</v>
+        <v>23153</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Shiore</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -5810,22 +5810,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>26974</v>
+        <v>23154</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -5839,28 +5839,28 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>27538</v>
+        <v>23155</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -5868,22 +5868,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>27540</v>
+        <v>23156</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Shibire</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -5897,22 +5897,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>21/6/2021</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>27688</v>
+        <v>23215</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Fuuma Kotohime</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -5922,26 +5922,26 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>9162336</v>
+        <v>20</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>31122</v>
+        <v>23569</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Guruko</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -5955,22 +5955,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>31197</v>
+        <v>23759</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Morino Idate</t>
+          <t>Tatami Iwashi</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -5984,22 +5984,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>31365</v>
+        <v>24324</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Tobio</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -6013,22 +6013,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31828</v>
+        <v>25145</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6053,11 +6053,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>32891</v>
+        <v>25179</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -6082,11 +6082,11 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>32908</v>
+        <v>25759</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -6100,22 +6100,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33056</v>
+        <v>26974</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6140,11 +6140,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>33143</v>
+        <v>27538</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6169,11 +6169,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>33144</v>
+        <v>27540</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -6198,11 +6198,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33154</v>
+        <v>27688</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -6216,22 +6216,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33215</v>
+        <v>31122</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -6256,11 +6256,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>34075</v>
+        <v>31197</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Bisuke</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -6270,26 +6270,26 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20</v>
+        <v>9219076</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>37929</v>
+        <v>31365</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -6303,22 +6303,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>41366</v>
+        <v>31828</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ukon</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -6332,22 +6332,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>6/11/2023</t>
+          <t>7/11/2023</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>41828</v>
+        <v>32891</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -6372,11 +6372,11 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>43923</v>
+        <v>32908</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Kunihisa</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -6401,11 +6401,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>43924</v>
+        <v>33056</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Kunijirou</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -6430,11 +6430,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>43972</v>
+        <v>33143</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -6459,11 +6459,11 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>46605</v>
+        <v>33144</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -6488,11 +6488,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>50957</v>
+        <v>33154</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -6517,11 +6517,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53972</v>
+        <v>33155</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -6535,22 +6535,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>56605</v>
+        <v>33215</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -6575,11 +6575,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>60957</v>
+        <v>34075</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Bisuke</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -6593,22 +6593,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>28/5/2023</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>63793</v>
+        <v>37688</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Gatou</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -6622,22 +6622,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/8/2023</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>67289</v>
+        <v>37929</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Haruno Mebuki</t>
+          <t>Manda</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -6651,28 +6651,28 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>77693</v>
+        <v>41197</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Natsuhi</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6680,22 +6680,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>82609</v>
+        <v>41366</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Ukon</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -6705,26 +6705,26 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>83755</v>
+        <v>41828</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Gantetsu</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -6749,11 +6749,11 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>88313</v>
+        <v>43923</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Hakus Mother</t>
+          <t>Kunihisa</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -6763,26 +6763,26 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>9336544</v>
+        <v>0</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>90849</v>
+        <v>43924</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tonton</t>
+          <t>Kunijirou</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -6792,26 +6792,26 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>17/11/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>91137</v>
+        <v>43972</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Kujaku</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -6821,26 +6821,26 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>9601122</v>
+        <v>20</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>92609</v>
+        <v>46605</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -6854,28 +6854,28 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>129493</v>
+        <v>50957</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Kurama Unkai</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -6883,22 +6883,22 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>149421</v>
+        <v>53972</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Akame Iwana</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -6912,22 +6912,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>31/3/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>149422</v>
+        <v>56605</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Bekkou</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6952,11 +6952,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>149423</v>
+        <v>60957</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -6981,17 +6981,17 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>149424</v>
+        <v>63793</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Gatou</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -6999,22 +6999,22 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>160858</v>
+        <v>67289</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Haruno Mebuki</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -7028,22 +7028,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>160859</v>
+        <v>77693</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Shinayakana</t>
+          <t>Natsuhi</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -7057,28 +7057,28 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>161288</v>
+        <v>82609</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sanshou</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -7086,22 +7086,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>197866</v>
+        <v>83755</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Kamizuru Kurobachi</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7111,26 +7111,26 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>197867</v>
+        <v>88313</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Hakus Mother</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -7140,26 +7140,26 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>9141411</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>206139</v>
+        <v>90849</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Momiji</t>
+          <t>Tonton</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -7169,26 +7169,26 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>206141</v>
+        <v>91137</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Kagero</t>
+          <t>Kujaku</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -7202,22 +7202,22 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>206142</v>
+        <v>92609</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Raijin</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -7242,11 +7242,11 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>206143</v>
+        <v>93755</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -7256,26 +7256,26 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>9949762</v>
+        <v>20</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>206144</v>
+        <v>129493</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Kurama Unkai</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>206145</v>
+        <v>149421</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ruiga</t>
+          <t>Akame Iwana</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -7318,22 +7318,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>18/5/2021</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>227807</v>
+        <v>149422</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Bekkou</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -7343,26 +7343,26 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>227808</v>
+        <v>149423</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Kagetsu Toubei</t>
+          <t>Ibara</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -7376,22 +7376,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>227809</v>
+        <v>149424</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Kagetsu Tsukiko</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -7401,26 +7401,26 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9877806</v>
+        <v>20</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>227810</v>
+        <v>160858</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Kagetsu Mai</t>
+          <t>Fukuyokana</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -7434,22 +7434,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>227811</v>
+        <v>160859</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Kikunojou</t>
+          <t>Shinayakana</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -7463,22 +7463,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>227812</v>
+        <v>161288</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sanjurou Shura</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7492,22 +7492,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>227898</v>
+        <v>197866</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Yurinojou</t>
+          <t>Kamizuru Kurobachi</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7517,26 +7517,26 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20</v>
+        <v>9461793</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>227899</v>
+        <v>197867</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Hanzaki</t>
+          <t>Kamizuru Suzumebachi</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -7550,22 +7550,22 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>227900</v>
+        <v>206139</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Momiji</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -7579,22 +7579,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>234151</v>
+        <v>206141</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Narrator</t>
+          <t>Kagero</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -7608,22 +7608,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>237807</v>
+        <v>206142</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Raijin</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -7633,26 +7633,26 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>20</v>
+        <v>9909891</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>245051</v>
+        <v>206143</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Wagarashi Kyuuroku</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -7666,28 +7666,28 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>251508</v>
+        <v>206144</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Rokusuke</t>
+          <t>Koumei</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -7695,22 +7695,22 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>251515</v>
+        <v>206145</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Sangorou</t>
+          <t>Ruiga</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -7724,22 +7724,22 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>251571</v>
+        <v>216143</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sukeza</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -7753,22 +7753,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>251864</v>
+        <v>227807</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Gosunkugi</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -7782,22 +7782,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>251865</v>
+        <v>227808</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Manaka Michizou</t>
+          <t>Kagetsu Toubei</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -7807,26 +7807,26 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9256244</v>
+        <v>20</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>252501</v>
+        <v>227809</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Potcha</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -7840,22 +7840,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2/11/2022</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>252721</v>
+        <v>227810</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Oowashi</t>
+          <t>Kagetsu Mai</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -7869,22 +7869,22 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>252722</v>
+        <v>227811</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Amachi</t>
+          <t>Kikunojou</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -7898,22 +7898,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>252723</v>
+        <v>227812</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Hitode</t>
+          <t>Sanjurou Shura</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -7927,22 +7927,22 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>252724</v>
+        <v>227898</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Kaisen Agari</t>
+          <t>Yurinojou</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -7956,22 +7956,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>252725</v>
+        <v>227899</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Hotarubi</t>
+          <t>Hanzaki</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -7981,26 +7981,26 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>9893185</v>
+        <v>20</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>252726</v>
+        <v>227900</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Shisou</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -8014,22 +8014,22 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>252729</v>
+        <v>234151</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Kagetsu Kiyoyasu</t>
+          <t>Narrator</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -8043,22 +8043,22 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
+          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>252730</v>
+        <v>237807</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Jiga</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -8083,11 +8083,11 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>252731</v>
+        <v>237809</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chikara</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -8101,22 +8101,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>252732</v>
+        <v>237900</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Fuku</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8130,22 +8130,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>252733</v>
+        <v>245051</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Kayo</t>
+          <t>Wagarashi Kyuuroku</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -8159,22 +8159,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>24/8/2023</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>252734</v>
+        <v>251508</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Kubisaki Kouza</t>
+          <t>Rokusuke</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -8188,22 +8188,22 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>252737</v>
+        <v>251515</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ryuudouin Genshou</t>
+          <t>Sangorou</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -8217,22 +8217,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>252738</v>
+        <v>251571</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Yagura</t>
+          <t>Sukeza</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -8246,22 +8246,22 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>252741</v>
+        <v>251864</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ryuudouin Agira</t>
+          <t>Gosunkugi</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -8275,22 +8275,22 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>252742</v>
+        <v>251865</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ryuudouin Jakou</t>
+          <t>Manaka Michizou</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -8304,22 +8304,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>252743</v>
+        <v>252501</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ryuudouin Rokkaku</t>
+          <t>Potcha</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -8333,22 +8333,22 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>252779</v>
+        <v>252721</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Kanna</t>
+          <t>Oowashi</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -8362,22 +8362,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>252908</v>
+        <v>252722</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Kurama Uroko</t>
+          <t>Amachi</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -8391,22 +8391,22 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>252909</v>
+        <v>252723</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Kurama Murakumo</t>
+          <t>Hitode</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -8420,22 +8420,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>252910</v>
+        <v>252724</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Monju</t>
+          <t>Kaisen Agari</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -8445,26 +8445,26 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9398825</v>
+        <v>20</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2/5/2020</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>252911</v>
+        <v>252725</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Hotarubi</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -8478,22 +8478,22 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>252912</v>
+        <v>252726</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Tsuzumi</t>
+          <t>Shisou</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -8503,26 +8503,26 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>9311760</v>
+        <v>20</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>252915</v>
+        <v>252729</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fuki</t>
+          <t>Kagetsu Kiyoyasu</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -8532,26 +8532,26 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>252916</v>
+        <v>252730</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Shiin</t>
+          <t>Jiga</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -8565,22 +8565,22 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>8/10/2020</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>252918</v>
+        <v>252731</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Suiko</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -8594,22 +8594,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>255312</v>
+        <v>252732</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mozuku</t>
+          <t>Fuku</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -8619,26 +8619,26 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9388821</v>
+        <v>20</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>256932</v>
+        <v>252733</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Madam Shijimi</t>
+          <t>Kayo</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -8652,22 +8652,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>262721</v>
+        <v>252734</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Oowashi</t>
+          <t>Kubisaki Kouza</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -8681,18 +8681,18 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>262737</v>
+        <v>252737</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -8715,17 +8715,17 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>262743</v>
+        <v>252738</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ryuudouin Rokkaku</t>
+          <t>Yagura</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -8739,22 +8739,22 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>262915</v>
+        <v>252741</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Fuki</t>
+          <t>Ryuudouin Agira</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -8768,22 +8768,22 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>267451</v>
+        <v>252742</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Funeno Daikoku</t>
+          <t>Ryuudouin Jakou</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -8797,22 +8797,22 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>267452</v>
+        <v>252743</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chouhan</t>
+          <t>Ryuudouin Rokkaku</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -8826,22 +8826,22 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>268346</v>
+        <v>252779</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Hostesssan</t>
+          <t>Kanna</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -8855,12 +8855,563 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
+          <t>https://placeholder.com/no_image.jpg</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>252908</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Kurama Uroko</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>252909</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Kurama Murakumo</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>20</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>252910</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Monju</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>20</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>252911</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Toki</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>20</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>252912</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Tsuzumi</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>20</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2/2/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>252915</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Fuki</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>20</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>252916</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Shiin</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>20</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>252918</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Suiko</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>20</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>https://placeholder.com/no_image.jpg</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>255312</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Mozuku</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>20</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>256932</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Madam Shijimi</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>20</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>262721</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Oowashi</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>20</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>262723</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Hitode</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>20</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>262732</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Fuku</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>20</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>262737</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Ryuudouin Genshou</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>20</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>262743</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ryuudouin Rokkaku</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>20</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>262915</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Fuki</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>20</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>267451</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Funeno Daikoku</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>20</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>267452</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Chouhan</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>20</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>268346</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Hostesssan</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>20</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
           <t>https://cdn.myanimelist.net/images/characters/15/586086.jpg?s=02e9fb0931709c294a6b2efb03592daf</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>2025-03-30 15:23:40</t>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>

--- a/src/bigdata/static/db/cleaned_data.xlsx
+++ b/src/bigdata/static/db/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -590,12 +590,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/61330.jpg?s=ee8fc22475454609f72ae66112f6cf87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>17/6/2020</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/6/2020</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9460492</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>3/1/2022</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/105421.jpg?s=bbb2f94a4f15470a215358085358bc37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/9/2022</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9779608</v>
+        <v>9544258</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/523646.jpg?s=6e76b1e4adef34cd1698c91947542cc5</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>16/3/2022</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SUPPORTING</t>
+          <t>DESCONOCIDO</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>23/4/2021</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>9689633</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>9799565</v>
+        <v>20</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>24/1/2020</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>27/5/2022</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9720413</v>
+        <v>20</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1/9/2022</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6/12/2020</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2475,12 +2475,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
@@ -2538,17 +2538,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11813</v>
+        <v>10809</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Shukaku</t>
+          <t>Mitarashi Anko</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66177.jpg?s=dd1055043101c23d89c332873170f962</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>12405</v>
+        <v>11813</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Yakushi Kabuto</t>
+          <t>Shukaku</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2591,22 +2591,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/62812.jpg?s=c16d67dab7ccd31a6b0c639a504fc2b6</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>12464</v>
+        <v>12405</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Senju Hashirama</t>
+          <t>Yakushi Kabuto</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -2616,11 +2616,11 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9085230</v>
+        <v>20</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/82459.jpg?s=81d3435c2ca60c6acbea9da7bc7ba6c4</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2631,11 +2631,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12465</v>
+        <v>12464</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Senju Tobirama</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2645,11 +2645,11 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>9085230</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2660,11 +2660,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12563</v>
+        <v>12465</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hyuuga Hanabi</t>
+          <t>Senju Tobirama</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2678,22 +2678,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/292518.jpg?s=c860f8ad1834beb701c7da96b5bcc699</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/293367.jpg?s=368e32b777d1652b75597ceb0808fd05</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>12766</v>
+        <v>12563</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pakkun</t>
+          <t>Hyuuga Hanabi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2707,22 +2707,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
+          <t>https://placeholder.com/no_image.jpg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13017</v>
+        <v>12766</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Pakkun</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54922.jpg?s=d5ad8c7e353fd173d020ef72fbadd3f3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13454</v>
+        <v>13017</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kazamatsuri Moegi</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2765,22 +2765,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>14032</v>
+        <v>13150</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kamizuki Izumo</t>
+          <t>Zetsu</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2794,22 +2794,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/76260.jpg?s=f677ce2557f67393a92943f4b21270ab</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15039</v>
+        <v>13454</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hyuuga Hiashi</t>
+          <t>Kazamatsuri Moegi</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2823,22 +2823,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/110944.jpg?s=5f8e5adbf660bbf2b12cf7f18589b8e9</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>21/2/2022</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15045</v>
+        <v>14032</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Uzuki Yugao</t>
+          <t>Kamizuki Izumo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2852,28 +2852,28 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/104663.jpg?s=2ae515dad36ebe3e30c9f36155fb5e56</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>15072</v>
+        <v>14775</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Yamanaka Inoichi</t>
+          <t>Sarutobi Asuma</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2881,22 +2881,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/82538.jpg?s=5196f696350f23474767acdf6efc6b8f</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15073</v>
+        <v>15039</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Inuzuka Hana</t>
+          <t>Hyuuga Hiashi</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/103836.jpg?s=ee29dfbb0ceaba845e7baf1d2973405a</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15074</v>
+        <v>15045</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Inuzuka Tsume</t>
+          <t>Uzuki Yugao</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2939,22 +2939,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/232233.jpg?s=c9e3a2d3deea5b8ca06b92593410bc71</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15077</v>
+        <v>15072</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tsunami</t>
+          <t>Yamanaka Inoichi</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2968,22 +2968,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103837.jpg?s=b2e6470593966071b495ca22130eeb0f</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15081</v>
+        <v>15073</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Baki</t>
+          <t>Inuzuka Hana</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2993,26 +2993,26 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9090684</v>
+        <v>20</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/166499.jpg?s=d444af94f64ccedaf8bace8f103cf3b4</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>15145</v>
+        <v>15074</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Inuzuka Tsume</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>15176</v>
+        <v>15077</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fuuma Kamikiri</t>
+          <t>Tsunami</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3051,26 +3051,26 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/58401.jpg?s=507d1849662bf29561659f2b42f801bc</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>15177</v>
+        <v>15081</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fuuma Sasame</t>
+          <t>Baki</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3084,22 +3084,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103833.jpg?s=55731fecf3505c870eb10480c5a08587</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15178</v>
+        <v>15145</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Haruna</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3109,26 +3109,26 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>9542872</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15179</v>
+        <v>15176</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Fuuma Kamikiri</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3142,22 +3142,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63709.jpg?s=86ed81ec920366d296d2533364e1eb24</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>15757</v>
+        <v>15177</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Enma</t>
+          <t>Fuuma Sasame</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3171,22 +3171,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15759</v>
+        <v>15178</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mizura</t>
+          <t>Haruna</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3200,28 +3200,28 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66168.jpg?s=e4ae19d946f19990794862b7aaee7c8c</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>16164</v>
+        <v>15179</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gouzu</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3229,22 +3229,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>16165</v>
+        <v>15757</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Meizu</t>
+          <t>Enma</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -3258,22 +3258,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/158745.jpg?s=273fc4a8efd0a327b4694531e85ee9e0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>16304</v>
+        <v>15759</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hagane Kotetsu</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -3287,22 +3287,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16321</v>
+        <v>16164</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Gouzu</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -3316,22 +3316,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74497.jpg?s=874a6ed56b94d55c6325fbd6d2187566</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>16952</v>
+        <v>16165</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gamatatsu</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/74494.jpg?s=267f649946d4c04800efb715f1433204</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16973</v>
+        <v>16304</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Uchiha Fugaku</t>
+          <t>Hagane Kotetsu</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -3374,22 +3374,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/104662.jpg?s=c689d1dd76d9921dd6598fd4e9658232</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>16974</v>
+        <v>16321</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -3403,22 +3403,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/57642.jpg?s=9e96af8d4cfee54f67801e8222a284ac</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>16975</v>
+        <v>16952</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Gamatatsu</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -3428,26 +3428,26 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62776.jpg?s=b739ffebbce00c375e4788c5215c974e</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>16976</v>
+        <v>16973</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wasabi Jirouchou</t>
+          <t>Uchiha Fugaku</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103948.jpg?s=1bd273d4b4fcc2373f19d2d9ac299f3d</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16999</v>
+        <v>16974</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gamakichi</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -3490,22 +3490,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>8/5/2021</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>17165</v>
+        <v>16975</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chishima</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -3515,26 +3515,26 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9171485</v>
+        <v>20</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66171.jpg?s=cad84e6a8103d2c12dfcd83dfdcf90d9</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>13/4/2020</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>17197</v>
+        <v>16976</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tazuna</t>
+          <t>Wasabi Jirouchou</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -3544,26 +3544,26 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/56420.jpg?s=081620f38eb1fc3393ddfa018ee5297b</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>17199</v>
+        <v>16999</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Genno</t>
+          <t>Gamakichi</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -3577,22 +3577,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>17200</v>
+        <v>17165</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Todoroki</t>
+          <t>Chishima</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -3606,22 +3606,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63540.jpg?s=e4e114ada252289d19750b4a877f193a</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17298</v>
+        <v>17197</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Namiashi Raidou</t>
+          <t>Tazuna</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3635,22 +3635,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/53360.jpg?s=cf1c21af6209f5bb9d82f5c4892a83dc</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17302</v>
+        <v>17199</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Karashi</t>
+          <t>Genno</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3664,22 +3664,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62778.jpg?s=cad1bb4c3124a3a6c30a352c25c04d46</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>17305</v>
+        <v>17200</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ryuugan</t>
+          <t>Todoroki</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3689,26 +3689,26 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66166.jpg?s=1f7c3572dc2bf62797a7f73c784540c0</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>17307</v>
+        <v>17298</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hikyakuya Fukusuke</t>
+          <t>Namiashi Raidou</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3722,22 +3722,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/61075.jpg?s=a289ddfea01612615bd12f09ca4d27f3</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17310</v>
+        <v>17302</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ayame</t>
+          <t>Karashi</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -3751,22 +3751,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57107.jpg?s=9ca59a409730ca411b5984cf61a1a14a</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17312</v>
+        <v>17305</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Teuchi</t>
+          <t>Ryuugan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -3780,22 +3780,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/57108.jpg?s=5df542deeb2f65c79c0d08fab063a160</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17313</v>
+        <v>17307</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fuuma Jigumo</t>
+          <t>Hikyakuya Fukusuke</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3809,22 +3809,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66517.jpg?s=23c232aa2473e337f6e06fce77b7864d</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>17316</v>
+        <v>17310</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fuuma Arashi</t>
+          <t>Ayame</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -3838,22 +3838,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/130515.jpg?s=e47667162694ef2dd32847cebb0b2a21</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>17414</v>
+        <v>17312</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ranmaru</t>
+          <t>Teuchi</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -3867,22 +3867,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62801.jpg?s=f109b4042f55fcf076099cea211591b6</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>17424</v>
+        <v>17313</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hokushin</t>
+          <t>Fuuma Jigumo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -3896,22 +3896,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66518.jpg?s=3980711fbffae5453c8f160669e6d75c</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17425</v>
+        <v>17316</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Renga</t>
+          <t>Fuuma Arashi</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -3925,22 +3925,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/57469.jpg?s=d251c959af0cf7d1fc32fc4bee1b4991</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17535</v>
+        <v>17414</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Genzou</t>
+          <t>Ranmaru</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -3954,22 +3954,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>7/7/2021</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17536</v>
+        <v>17424</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Gatsu</t>
+          <t>Hokushin</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -3983,22 +3983,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/62767.jpg?s=9b159f9cb1bb8ce2a77c7ae0e2c70121</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>10/11/2023</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17537</v>
+        <v>17425</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dengaku</t>
+          <t>Renga</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4008,26 +4008,26 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58241.jpg?s=4159a4350a59e3302a1c8ce8b0ad71d3</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17538</v>
+        <v>17535</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Genzou</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4037,26 +4037,26 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20</v>
+        <v>9738509</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/66172.jpg?s=de0e8bb08032f5ae069af04079e83290</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17539</v>
+        <v>17536</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hokuto</t>
+          <t>Gatsu</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -4070,22 +4070,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/63539.jpg?s=5324125b99b03945056d526e905e890e</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17540</v>
+        <v>17537</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Dengaku</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4099,22 +4099,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537908.jpg?s=81ab248e1dceab2044da30c352ee30d5</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17541</v>
+        <v>17538</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nagare</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17542</v>
+        <v>17539</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nanafushi</t>
+          <t>Hokuto</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -4157,22 +4157,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/63538.jpg?s=9bff001f1cf55c3d0740a90d1a0c89fb</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>17543</v>
+        <v>17540</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nan</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17544</v>
+        <v>17541</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kazabune</t>
+          <t>Nagare</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -4211,26 +4211,26 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/66488.jpg?s=b6e5d3c20c2b2064cf56f12af493235d</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17545</v>
+        <v>17542</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Kurama Yakumo</t>
+          <t>Nanafushi</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -4244,22 +4244,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/63537.jpg?s=1c71abf02b0903c1c6edfd9b54e950eb</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17546</v>
+        <v>17543</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sazanami</t>
+          <t>Nan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -4273,22 +4273,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>17547</v>
+        <v>17544</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Senta</t>
+          <t>Kazabune</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -4298,26 +4298,26 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>9033658</v>
+        <v>20</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/66158.jpg?s=2c5dcdd973fce04c63d518e596e4efda</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>17548</v>
+        <v>17545</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Shinemon</t>
+          <t>Kurama Yakumo</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -4331,22 +4331,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556776.jpg?s=bbfa9397cb249318cac80a9a1a514c32</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17549</v>
+        <v>17546</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Yajirobee</t>
+          <t>Sazanami</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -4360,22 +4360,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63536.jpg?s=eb62fc3e11df23d866b1a78b4d797ad1</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>17551</v>
+        <v>17547</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tanzou</t>
+          <t>Senta</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -4389,22 +4389,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/57857.jpg?s=2aef0f9731d2f2ca93c0ff5ad295c4b3</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>9/3/2020</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>17552</v>
+        <v>17548</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Waraji</t>
+          <t>Shinemon</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -4418,22 +4418,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66159.jpg?s=dfc24aa973c4d2c1615f2052584b14ff</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>17553</v>
+        <v>17549</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Yamashiro Aoba</t>
+          <t>Yajirobee</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -4443,26 +4443,26 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86778.jpg?s=3d56da37f8699b46e82784699479e873</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>17557</v>
+        <v>17551</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Kamizuru Jibachi</t>
+          <t>Tanzou</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4476,22 +4476,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66173.jpg?s=06542938caae29fda9b7fb04184a60a3</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>17619</v>
+        <v>17552</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Oboro</t>
+          <t>Waraji</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -4505,22 +4505,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66174.jpg?s=91d2ed7c480213b896aa1f762ca59078</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>17666</v>
+        <v>17553</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Yamashiro Aoba</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -4534,22 +4534,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/158739.jpg?s=3b4ee6aa8529967c6768e6baf08f97b6</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1/2/2020</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>18056</v>
+        <v>17557</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nara Shikaku</t>
+          <t>Kamizuru Jibachi</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -4563,22 +4563,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/63378.jpg?s=4256a664cc6e92995286bb3ad93a09b9</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>18810</v>
+        <v>17619</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Menma</t>
+          <t>Oboro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -4592,22 +4592,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/62795.jpg?s=8273560ec7513d3e0f6284f8dc7dd2c3</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>19244</v>
+        <v>17666</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Kinuta Dosu</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66175.jpg?s=841f72e517da1a9b2fc439716cefe5d0</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>19253</v>
+        <v>18056</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Touji Mizuki</t>
+          <t>Nara Shikaku</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -4646,26 +4646,26 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>9295955</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/100214.jpg?s=23ba0304e5dd735219998bdbdf9e21da</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>19680</v>
+        <v>18810</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tsuchi Kin</t>
+          <t>Menma</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/57869.jpg?s=c9a65ff03d74f84b678c3393e76140da</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -4690,11 +4690,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>20274</v>
+        <v>19244</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Giichi</t>
+          <t>Kinuta Dosu</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -4708,22 +4708,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/36354.jpg?s=0332b5441c2938506646832a2075fc32</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>20276</v>
+        <v>19253</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jantou</t>
+          <t>Touji Mizuki</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -4737,22 +4737,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/57467.jpg?s=e4645af4f58901ab747cb4265e914015</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>28/5/2023</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20277</v>
+        <v>19680</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Kusabi</t>
+          <t>Tsuchi Kin</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -4766,22 +4766,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/66504.jpg?s=80e3346c8143cf804b3522dba532c13b</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20278</v>
+        <v>20274</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Hachidai</t>
+          <t>Giichi</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -4795,22 +4795,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/66545.jpg?s=790df38411c5b4b751d7cd9b42b9985f</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/5/2023</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20279</v>
+        <v>20276</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hakkaku</t>
+          <t>Jantou</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -4824,22 +4824,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537910.jpg?s=4e32dd8c118d9bc72955278f994abce9</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>20645</v>
+        <v>20277</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Akane</t>
+          <t>Kusabi</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -4853,22 +4853,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>20698</v>
+        <v>20278</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Akahoshi</t>
+          <t>Hachidai</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -4882,22 +4882,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/115731.jpg?s=43b585c73b0080f17daa5dffac38db13</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21122</v>
+        <v>20279</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Hakkaku</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/66540.jpg?s=192474dad6b9d50e73f2523dcc9633e4</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>21365</v>
+        <v>20645</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Akane</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -4940,22 +4940,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66541.jpg?s=db17d05fabd4c56ab0954e201e2b7d40</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22247</v>
+        <v>20698</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nara Yoshino</t>
+          <t>Akahoshi</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4969,22 +4969,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/57543.jpg?s=38e0bf9f45bf7e46bb18bb4b38cb6ae9</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22248</v>
+        <v>20700</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Karura</t>
+          <t>Akio</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4998,22 +4998,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/62769.jpg?s=486192f83af54566dc4ec46ba4e3d78f</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22464</v>
+        <v>21122</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Senju Hashirama</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -5027,22 +5027,22 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22648</v>
+        <v>21365</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Mitokado Homura</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -5056,22 +5056,22 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22649</v>
+        <v>22247</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Utatane Koharu</t>
+          <t>Nara Yoshino</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -5085,22 +5085,22 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/62786.jpg?s=ba1af85295f42df175be9d8b4abba9ad</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22876</v>
+        <v>22248</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Katou Dan</t>
+          <t>Karura</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -5114,22 +5114,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/225775.jpg?s=adf38059e2bf7cb4c12b62d00c548575</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22880</v>
+        <v>22464</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hyuuga Hizashi</t>
+          <t>Senju Hashirama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/34809.jpg?s=9a7605792e5daa2cd71b4f4695017b21</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5154,11 +5154,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>22881</v>
+        <v>22648</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kuromaru</t>
+          <t>Mitokado Homura</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -5168,26 +5168,26 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20</v>
+        <v>9075671</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/103955.jpg?s=7d8dd18334e6a3ea858ef83f2143f40a</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>22884</v>
+        <v>22649</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nawaki</t>
+          <t>Utatane Koharu</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -5201,22 +5201,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103956.jpg?s=e23b167bd6014bdeeee43d0db4fe2b1d</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>22889</v>
+        <v>22876</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Uchiha Tekka</t>
+          <t>Katou Dan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -5226,26 +5226,26 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/103946.jpg?s=1daafb671133a56961180019179944cd</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>22891</v>
+        <v>22880</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Hyuuga Hizashi</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -5259,22 +5259,22 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>22908</v>
+        <v>22881</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Kuromaru</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -5288,22 +5288,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/103834.jpg?s=b08a041e79fff1608b77c721ad09e1da</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>22920</v>
+        <v>22884</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rasa</t>
+          <t>Nawaki</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -5313,26 +5313,26 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20</v>
+        <v>9179194</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103950.jpg?s=c4a20a1dde848f0a7c4b12c3d022bdc3</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>22921</v>
+        <v>22889</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tsurugi Misumi</t>
+          <t>Uchiha Tekka</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -5342,26 +5342,26 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>9811549</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86796.jpg?s=fc107ccdf55729162c9f693a22075db1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>22922</v>
+        <v>22891</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Genyuumaru</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -5371,26 +5371,26 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20</v>
+        <v>9064221</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>22923</v>
+        <v>22908</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Morino Ibiki</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -5404,22 +5404,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>22931</v>
+        <v>22920</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Zouri</t>
+          <t>Rasa</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -5433,22 +5433,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/103604.jpg?s=b98324630fedff5c437acbaa45832db5</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22996</v>
+        <v>22921</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kaiza</t>
+          <t>Tsurugi Misumi</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -5462,22 +5462,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/104667.jpg?s=045158b54045938853e41ecd1f285818</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23006</v>
+        <v>22922</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ami</t>
+          <t>Genyuumaru</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -5491,22 +5491,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66533.jpg?s=2e8749b312e366dac4171954678cccc7</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>23017</v>
+        <v>22923</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Yashamaru</t>
+          <t>Morino Ibiki</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -5520,22 +5520,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/104672.jpg?s=b8200c863a19fe5d963b21e954efc948</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>23052</v>
+        <v>22931</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ise Udon</t>
+          <t>Zouri</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -5549,22 +5549,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/62818.jpg?s=09c9ae4257eb68383403a95ba8566814</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>23053</v>
+        <v>22996</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hiruko</t>
+          <t>Kaiza</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -5578,22 +5578,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>23056</v>
+        <v>23006</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Ami</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -5607,22 +5607,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66497.jpg?s=d8cae2c3208d7c910e02490fe6a31384</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23081</v>
+        <v>23017</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Baiu</t>
+          <t>Yashamaru</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/103943.jpg?s=6d629e23e1ee454ea6ac6d780629d450</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>23083</v>
+        <v>23052</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Midare</t>
+          <t>Ise Udon</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -5665,22 +5665,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/91366.jpg?s=d65c9ef3d5d16b21a7328b217bc9f6e4</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23140</v>
+        <v>23053</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tobitake Tonbo</t>
+          <t>Hiruko</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -5694,22 +5694,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/69007.jpg?s=34b5207972f609166676b20094607f3f</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>23143</v>
+        <v>23056</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -5719,26 +5719,26 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20</v>
+        <v>9150641</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23144</v>
+        <v>23081</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Baiu</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -5748,26 +5748,26 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>9888779</v>
+        <v>20</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66499.jpg?s=0ef68a611ec7d242be32fd320ee807f1</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>23145</v>
+        <v>23083</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Shiba</t>
+          <t>Midare</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -5781,22 +5781,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86793.jpg?s=71e37d30b47e6dd24e08a9cb128c9e77</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>23153</v>
+        <v>23140</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Shiore</t>
+          <t>Tobitake Tonbo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -5810,22 +5810,22 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/86803.jpg?s=d6d21b045da1b9425532adec1075b810</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>23154</v>
+        <v>23143</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -5839,28 +5839,28 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>6/1/2021</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>23155</v>
+        <v>23144</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hijiri Shimon</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -5868,22 +5868,22 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23156</v>
+        <v>23145</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Shibire</t>
+          <t>Shiba</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -5897,22 +5897,22 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/86804.jpg?s=7634d10c90ea9f531a846316bee99f63</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21/6/2021</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>23215</v>
+        <v>23153</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Shiore</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -5926,22 +5926,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66502.jpg?s=2568729a2ee7f897f6783789f4bab0ae</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23569</v>
+        <v>23154</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Guruko</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -5955,22 +5955,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23759</v>
+        <v>23155</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tatami Iwashi</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -5984,22 +5984,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>24324</v>
+        <v>23156</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tobio</t>
+          <t>Shibire</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -6013,22 +6013,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>25145</v>
+        <v>23215</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Yotaka</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -6038,26 +6038,26 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>25179</v>
+        <v>23569</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Shigure</t>
+          <t>Guruko</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -6071,22 +6071,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66154.jpg?s=db0077d29c1d90928be7d23d75c2a86a</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25759</v>
+        <v>23759</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mizura</t>
+          <t>Tatami Iwashi</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -6100,22 +6100,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/66507.jpg?s=dc52c84ff068a1edfe16db6111b1b849</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>26974</v>
+        <v>24324</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Mubi</t>
+          <t>Tobio</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -6129,22 +6129,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/66500.jpg?s=b36f1ad66e3a60c1ebbb49533436352e</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>27538</v>
+        <v>25074</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Akado Manabu</t>
+          <t>Inuzuka Tsume</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -6158,22 +6158,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/103831.jpg?s=2a8ca532d72a28e03103f3ca4da854ed</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>27540</v>
+        <v>25145</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Mondai</t>
+          <t>Yotaka</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/62787.jpg?s=d65d7be6fc27234bcc5bacd16739c37f</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -6198,11 +6198,11 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27688</v>
+        <v>25177</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Fuuma Kotohime</t>
+          <t>Fuuma Sasame</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -6216,22 +6216,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/57172.jpg?s=69bcddb9ca21b6bfb797f0b768c73855</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31122</v>
+        <v>25179</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Uchiha Mikoto</t>
+          <t>Shigure</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/110943.jpg?s=b2b4dcb556d05b65798e27f65091e8b7</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -6256,11 +6256,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>31197</v>
+        <v>25759</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Morino Idate</t>
+          <t>Mizura</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -6270,11 +6270,11 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>9219076</v>
+        <v>20</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/62804.jpg?s=0dad57fdb56dd9d64ca62b9793a0c40b</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -6285,11 +6285,11 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>31365</v>
+        <v>26974</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Inari</t>
+          <t>Mubi</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -6303,22 +6303,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/58258.jpg?s=aa127e0bc2a822dd86e849f15f0febac</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>31828</v>
+        <v>26999</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Gamakichi</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -6332,22 +6332,22 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/54034.jpg?s=a1d0d1302e022358635f63c07e8429ce</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>7/11/2023</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32891</v>
+        <v>27414</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Uchiha Inabi</t>
+          <t>Ranmaru</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/55003.jpg?s=11866279222acc75ada8b0353e6af433</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>32908</v>
+        <v>27538</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Uchiha Yashiro</t>
+          <t>Akado Manabu</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/86790.jpg?s=5a399336b508b53c53287ec017086beb</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -6401,11 +6401,11 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>33056</v>
+        <v>27540</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Kagari</t>
+          <t>Mondai</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/555901.jpg?s=b4219edd949f8ba718f8760ef956656a</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -6430,11 +6430,11 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>33143</v>
+        <v>27543</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Uchiha Teyaki</t>
+          <t>Nan</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -6448,22 +6448,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/140157.jpg?s=a030a9602a156caf683ada7d8976558c</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>33144</v>
+        <v>27688</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Uchiha Uruchi</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -6477,22 +6477,22 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>33154</v>
+        <v>30277</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>Kusabi</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/86782.jpg?s=23f8fe30f041889e5ede45d718a4fa15</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>33155</v>
+        <v>31122</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hijiri Shimon</t>
+          <t>Uchiha Mikoto</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -6535,22 +6535,22 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/103949.jpg?s=67135a760c60ac7cbc7709090b21c17b</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>33215</v>
+        <v>31197</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sagi</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -6560,26 +6560,26 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20</v>
+        <v>9266153</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>34075</v>
+        <v>31365</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Bisuke</t>
+          <t>Inari</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -6593,22 +6593,22 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66542.jpg?s=ae90ead66827caee405654169c1d62df</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/5/2023</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>37688</v>
+        <v>31828</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Fuuma Kotohime</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -6622,22 +6622,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>37929</v>
+        <v>32880</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Manda</t>
+          <t>Hyuuga Hizashi</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -6651,22 +6651,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103835.jpg?s=c9429dec280f793007cf80f8caba7746</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>41197</v>
+        <v>32891</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Morino Idate</t>
+          <t>Uchiha Inabi</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -6680,22 +6680,22 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66477.jpg?s=fbe797efefdeb68d9ee2cdf73ee70cc9</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>41366</v>
+        <v>32908</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ukon</t>
+          <t>Uchiha Yashiro</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -6705,26 +6705,26 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/63710.jpg?s=499ad3c7790fa36cf5c8791e8e113dbe</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>41828</v>
+        <v>32996</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Jouseki</t>
+          <t>Kaiza</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -6738,22 +6738,22 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/66536.jpg?s=ac7e300d879023a08bf3a644c8357218</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>43923</v>
+        <v>33056</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Kunihisa</t>
+          <t>Kagari</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -6763,26 +6763,26 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/66498.jpg?s=8ba6e48897cc7f1412d64d121bc0d6f7</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>43924</v>
+        <v>33143</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Kunijirou</t>
+          <t>Uchiha Teyaki</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -6792,26 +6792,26 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/66479.jpg?s=20d21448fa9ffa756dd10f253713c42a</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>43972</v>
+        <v>33144</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Uchiha Uruchi</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -6825,22 +6825,22 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/66478.jpg?s=2313c082fad87d2e397e22beddd64fb7</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>46605</v>
+        <v>33154</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -6854,22 +6854,22 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/104661.jpg?s=9f95512015f34152c03918aec3664188</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50957</v>
+        <v>33155</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Hijiri Shimon</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/86788.jpg?s=3348003fe5cecad102db2c1425eb4e0c</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -6894,11 +6894,11 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>53972</v>
+        <v>33156</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Matsuri</t>
+          <t>Shibire</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -6912,22 +6912,22 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/66501.jpg?s=cbee9c8d03d4bc2084639e707819fd01</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>56605</v>
+        <v>33215</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Shibuki</t>
+          <t>Sagi</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/86794.jpg?s=f065fc39ff39e5a251abaa8033ce1d92</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6952,11 +6952,11 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>60957</v>
+        <v>34075</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Bisuke</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -6970,28 +6970,28 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>63793</v>
+        <v>37688</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Gatou</t>
+          <t>Fuuma Kotohime</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/70340.jpg?s=3d624e6155377aa9336adaa50e426519</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -7010,11 +7010,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>67289</v>
+        <v>37929</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Haruno Mebuki</t>
+          <t>Manda</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -7024,26 +7024,26 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/103617.jpg?s=6483a9be515b926ec009cd9ebeba850e</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>77693</v>
+        <v>41197</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Natsuhi</t>
+          <t>Morino Idate</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/86789.jpg?s=11e2602c4aa0820d20229c95eb0a42c2</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -7068,17 +7068,17 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>82609</v>
+        <v>41366</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Ukon</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -7086,22 +7086,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/112579.jpg?s=034c67cf8ab22788a8e7c0535252c0ff</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>83755</v>
+        <v>41828</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Gantetsu</t>
+          <t>Jouseki</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7115,22 +7115,22 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/559338.jpg?s=010b9c00af92f36282707d885e79f2b6</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>88313</v>
+        <v>43923</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Hakus Mother</t>
+          <t>Kunihisa</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -7140,26 +7140,26 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>9141411</v>
+        <v>20</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/120598.jpg?s=6da59fcbb63b7c647472957b76acb507</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>90849</v>
+        <v>43924</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Tonton</t>
+          <t>Kunijirou</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -7169,26 +7169,26 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120599.jpg?s=30f98207d94fc87a343a914b1bf29db2</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>91137</v>
+        <v>43972</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Kujaku</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -7202,22 +7202,22 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>92609</v>
+        <v>44075</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sumaru</t>
+          <t>Bisuke</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -7231,22 +7231,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/92486.jpg?s=dcbad5dc292d32c538c7480252826248</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>93755</v>
+        <v>46605</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Gantetsu</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -7260,22 +7260,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>129493</v>
+        <v>50957</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Kurama Unkai</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>3/12/2021</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>149421</v>
+        <v>53972</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Akame Iwana</t>
+          <t>Matsuri</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -7318,22 +7318,22 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/120890.jpg?s=5048ad02586cadf58c972fda393f5b04</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>18/5/2021</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>149422</v>
+        <v>56605</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Bekkou</t>
+          <t>Shibuki</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -7347,22 +7347,22 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/274003.jpg?s=babbbc356bee94b06af449bb315bf498</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>149423</v>
+        <v>60957</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ibara</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -7376,22 +7376,22 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/140139.jpg?s=d9d578e53e883a9cd4deece467c9c470</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>149424</v>
+        <v>63793</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Tsubaki</t>
+          <t>Gatou</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -7405,22 +7405,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/168503.jpg?s=5bcc36585ee1fa95c4942a0ee03c9700</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>160858</v>
+        <v>67289</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Fukuyokana</t>
+          <t>Haruno Mebuki</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -7434,22 +7434,22 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/175237.jpg?s=bcc49be06c3b43c9c54c29b0dd18235a</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>160859</v>
+        <v>77693</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Shinayakana</t>
+          <t>Natsuhi</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -7463,22 +7463,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/193691.jpg?s=ff8be52a854ccd3462d1138a96be535a</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>161288</v>
+        <v>82609</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sanshou</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -7492,22 +7492,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>197866</v>
+        <v>83755</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Kamizuru Kurobachi</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -7517,26 +7517,26 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9461793</v>
+        <v>20</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>197867</v>
+        <v>88313</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Kamizuru Suzumebachi</t>
+          <t>Hakus Mother</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -7550,22 +7550,22 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/214103.jpg?s=0db5e4e747583a8d7aa0ae7ba7626905</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>206139</v>
+        <v>90849</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Momiji</t>
+          <t>Tonton</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -7579,22 +7579,22 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
+          <t>https://cdn.myanimelist.net/images/characters/4/218401.jpg?s=4be1fcf1e0e1f944237aa973bad9493d</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>206141</v>
+        <v>91137</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Kagero</t>
+          <t>Kujaku</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -7608,22 +7608,22 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/537911.jpg?s=4949a777f1145e6a9a96aa37e715f9f8</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>206142</v>
+        <v>92609</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Raijin</t>
+          <t>Sumaru</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -7633,26 +7633,26 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>9909891</v>
+        <v>20</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/537912.jpg?s=483eb89088896d4a21aa7aee497d1cc6</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>206143</v>
+        <v>93755</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Gantetsu</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/532813.jpg?s=8c3b77cad493ec9c43117790aa5a2980</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -7677,17 +7677,17 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>206144</v>
+        <v>129493</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Koumei</t>
+          <t>Kurama Unkai</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>DESCONOCIDO</t>
+          <t>SUPPORTING</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -7695,22 +7695,22 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/283833.jpg?s=4e853b07094f923a234faa705f17a786</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>206145</v>
+        <v>149421</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Ruiga</t>
+          <t>Akame Iwana</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -7720,26 +7720,26 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20</v>
+        <v>9165651</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/325684.jpg?s=abe1359d28e202f76eb782b24cabcb64</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>216143</v>
+        <v>149422</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Fuujin</t>
+          <t>Bekkou</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -7753,22 +7753,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/325683.jpg?s=f1957fbfe6dd38a03c349ef640fa9243</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>227807</v>
+        <v>149423</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Ibara</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -7782,22 +7782,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/325681.jpg?s=51916a8d70c90f84e843c5e658036c28</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>227808</v>
+        <v>149424</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Kagetsu Toubei</t>
+          <t>Tsubaki</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -7807,26 +7807,26 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20</v>
+        <v>9707503</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/325682.jpg?s=53ac207d2c654556cc8227ab7c5dfa5a</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>227809</v>
+        <v>160858</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Kagetsu Tsukiko</t>
+          <t>Fukuyokana</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -7840,22 +7840,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/537909.jpg?s=814f40bd5f6ddf56bc9dc6ccb780497a</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>227810</v>
+        <v>160859</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Kagetsu Mai</t>
+          <t>Shinayakana</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -7869,22 +7869,22 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/355457.jpg?s=f2c854e6ec8b40219a460afae36d0d7a</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>227811</v>
+        <v>161288</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Kikunojou</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -7898,22 +7898,22 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>227812</v>
+        <v>171288</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sanjurou Shura</t>
+          <t>Sanshou</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
@@ -7927,22 +7927,22 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/464787.jpg?s=531f7b85fd2e0121f87e12312c90c1f2</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>227898</v>
+        <v>197866</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Yurinojou</t>
+          <t>Kamizuru Kurobachi</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
@@ -7956,22 +7956,22 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/444635.jpg?s=a6e8ec4094da3a4e6be5c01ea4b0ad97</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>227899</v>
+        <v>197867</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Hanzaki</t>
+          <t>Kamizuru Suzumebachi</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -7985,22 +7985,22 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/444636.jpg?s=585b42642c268be089bfab19f12a7ad6</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>227900</v>
+        <v>206139</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Momiji</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -8014,22 +8014,22 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464788.jpg?s=bdf1ad315774476bb67cfda24160d579</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>234151</v>
+        <v>206141</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Narrator</t>
+          <t>Kagero</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -8039,26 +8039,26 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/464790.jpg?s=d4da7295afd6f98b8afd362c6cfda7f8</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>237807</v>
+        <v>206142</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kagetsu Futa</t>
+          <t>Raijin</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -8072,22 +8072,22 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/464791.jpg?s=138bce99873c30fdf60896db726ed32b</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>237809</v>
+        <v>206143</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kagetsu Tsukiko</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -8101,22 +8101,22 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>237900</v>
+        <v>206144</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Houki</t>
+          <t>Koumei</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -8130,22 +8130,22 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/464794.jpg?s=1eb43505445601242f18ea731e3f9d1b</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>245051</v>
+        <v>206145</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Wagarashi Kyuuroku</t>
+          <t>Ruiga</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -8159,22 +8159,22 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/464795.jpg?s=1d82fd93925c8761ceb83a5b3f06bb30</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>251508</v>
+        <v>216143</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Rokusuke</t>
+          <t>Fuujin</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/464793.jpg?s=b2cb6092a5fcf3a9897279cae0b29035</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -8199,11 +8199,11 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>251515</v>
+        <v>227807</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Sangorou</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -8217,22 +8217,22 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>251571</v>
+        <v>227808</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Sukeza</t>
+          <t>Kagetsu Toubei</t>
         </is>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -8242,26 +8242,26 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/508744.jpg?s=3e27198ea68486f1de5ebc7bd5127ff4</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>251864</v>
+        <v>227809</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Gosunkugi</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C271" t="inlineStr"/>
@@ -8275,22 +8275,22 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>251865</v>
+        <v>227810</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Manaka Michizou</t>
+          <t>Kagetsu Mai</t>
         </is>
       </c>
       <c r="C272" t="inlineStr"/>
@@ -8304,22 +8304,22 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
+          <t>https://cdn.myanimelist.net/images/characters/7/508742.jpg?s=8aa640dc773d9cfe5a6f68ab2e105ae2</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>252501</v>
+        <v>227811</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Potcha</t>
+          <t>Kikunojou</t>
         </is>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -8329,26 +8329,26 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/508741.jpg?s=26aedaa8e589ec35e6fce2b60720d57c</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>252721</v>
+        <v>227812</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Oowashi</t>
+          <t>Sanjurou Shura</t>
         </is>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -8362,22 +8362,22 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/508740.jpg?s=f00168ae85f53a9b762e1a76e450474c</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>252722</v>
+        <v>227898</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Amachi</t>
+          <t>Yurinojou</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -8391,22 +8391,22 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508923.jpg?s=f2485f18fc733f1d4f5e3b1d5bc0e15f</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>252723</v>
+        <v>227899</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Hitode</t>
+          <t>Hanzaki</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -8420,22 +8420,22 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/508924.jpg?s=3b2a597b2c52e1cd26087dd7b86f7304</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>252724</v>
+        <v>227900</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kaisen Agari</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -8449,22 +8449,22 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2/5/2020</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>252725</v>
+        <v>234151</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Hotarubi</t>
+          <t>Narrator</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -8478,22 +8478,22 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
+          <t>https://cdn.myanimelist.net/images/questionmark_23.gif?s=f7dcbc4a4603d18356d3dfef8abd655c</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>252726</v>
+        <v>237807</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Shisou</t>
+          <t>Kagetsu Futa</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -8507,22 +8507,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/508743.jpg?s=b435c70d389970f54f58fe9c59cc8f3d</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-03-30 15:23:40</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>252729</v>
+        <v>237809</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Kagetsu Kiyoyasu</t>
+          <t>Kagetsu Tsukiko</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/508745.jpg?s=66cfaa34d36c7545635d43342606ebb5</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -8547,11 +8547,11 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>252730</v>
+        <v>237900</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jiga</t>
+          <t>Houki</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/508925.jpg?s=e5f88a31eaed7b6cb95544db68cdca7c</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -8576,11 +8576,11 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>252731</v>
+        <v>245051</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chikara</t>
+          <t>Wagarashi Kyuuroku</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -8594,22 +8594,22 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/542373.jpg?s=94a21398f97da9b75862b53e62be2cb4</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>252732</v>
+        <v>251508</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Fuku</t>
+          <t>Rokusuke</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -8623,22 +8623,22 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/554151.jpg?s=10b0af701e7ea712a13fbb7145e45ed9</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>252733</v>
+        <v>251515</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kayo</t>
+          <t>Sangorou</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
@@ -8652,22 +8652,22 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>252734</v>
+        <v>251571</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Kubisaki Kouza</t>
+          <t>Sukeza</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -8681,22 +8681,22 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
+          <t>https://cdn.myanimelist.net/images/characters/15/554281.jpg?s=26b2d12ea26a8b3b3c1ca3cb490a717f</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>252737</v>
+        <v>251864</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ryuudouin Genshou</t>
+          <t>Gosunkugi</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -8710,22 +8710,22 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/554773.jpg?s=1024f1aee9455f5ae9dc0dfd8753d5db</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>252738</v>
+        <v>251865</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Yagura</t>
+          <t>Manaka Michizou</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -8739,22 +8739,22 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/554774.jpg?s=79f3823ee5655d36831479dc1d53d51a</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>252741</v>
+        <v>252501</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ryuudouin Agira</t>
+          <t>Potcha</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -8764,26 +8764,26 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/555900.jpg?s=b05d1a35a11cfef057feabd868afca9e</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>252742</v>
+        <v>252721</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ryuudouin Jakou</t>
+          <t>Oowashi</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -8793,26 +8793,26 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20</v>
+        <v>9085069</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>252743</v>
+        <v>252722</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ryuudouin Rokkaku</t>
+          <t>Amachi</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -8826,22 +8826,22 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+          <t>https://cdn.myanimelist.net/images/characters/6/556367.jpg?s=3b4ac67c34a8743ee6b324e7ab4271e0</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>26/6/2020</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>252779</v>
+        <v>252723</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Kanna</t>
+          <t>Hitode</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -8855,22 +8855,22 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>252908</v>
+        <v>252724</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Kurama Uroko</t>
+          <t>Kaisen Agari</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -8884,22 +8884,22 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556369.jpg?s=a37e725dc17508bd9b32f9ced8f685cf</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>252909</v>
+        <v>252725</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Kurama Murakumo</t>
+          <t>Hotarubi</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -8913,22 +8913,22 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
+          <t>https://cdn.myanimelist.net/images/characters/12/556370.jpg?s=c550ea079613bed28cb76da0fe2642ca</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>252910</v>
+        <v>252726</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Monju</t>
+          <t>Shisou</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -8942,22 +8942,22 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556371.jpg?s=8a935350b1fe330fccab08ed4dba70f4</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>252911</v>
+        <v>252729</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Toki</t>
+          <t>Kagetsu Kiyoyasu</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
@@ -8967,26 +8967,26 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20</v>
+        <v>9319750</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556382.jpg?s=4f32f6e6aafa9201b10af07517ae09a9</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>252912</v>
+        <v>252730</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tsuzumi</t>
+          <t>Jiga</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
@@ -9000,22 +9000,22 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556384.jpg?s=c406b8c4d04055d075945ddb47c137ab</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2/2/2021</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>252915</v>
+        <v>252731</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Fuki</t>
+          <t>Chikara</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -9029,22 +9029,22 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+          <t>https://cdn.myanimelist.net/images/characters/13/556385.jpg?s=1ff497e0f2192782ee1c17ce21ee0ccc</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>252916</v>
+        <v>252732</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Shiin</t>
+          <t>Fuku</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -9058,22 +9058,22 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>252918</v>
+        <v>252733</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Suiko</t>
+          <t>Kayo</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -9087,22 +9087,22 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>https://placeholder.com/no_image.jpg</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556387.jpg?s=e8f502d13e543ecfeb7f7c0cf332f0d6</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>255312</v>
+        <v>252734</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Mozuku</t>
+          <t>Kubisaki Kouza</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -9116,22 +9116,22 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556388.jpg?s=e697b49ee2e9af138a4094e40193bcc2</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>256932</v>
+        <v>252737</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Madam Shijimi</t>
+          <t>Ryuudouin Genshou</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -9145,22 +9145,22 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>262721</v>
+        <v>252738</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Oowashi</t>
+          <t>Yagura</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -9174,22 +9174,22 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+          <t>https://cdn.myanimelist.net/images/characters/9/556392.jpg?s=7272bf589dfcbfe054b25a211d202d63</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-03-30 21:11:15</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>262723</v>
+        <v>252741</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Hitode</t>
+          <t>Ryuudouin Agira</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -9199,26 +9199,26 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
+          <t>https://cdn.myanimelist.net/images/characters/8/556395.jpg?s=5f3544f876a7125d2f49848c937f11c0</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>262732</v>
+        <v>252742</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Fuku</t>
+          <t>Ryuudouin Jakou</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -9232,22 +9232,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
+          <t>https://cdn.myanimelist.net/images/characters/2/556396.jpg?s=a7de98a4f0bafa37e4c2663cadd921ad</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>262737</v>
+        <v>252743</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ryuudouin Genshou</t>
+          <t>Ryuudouin Rokkaku</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -9261,22 +9261,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>262743</v>
+        <v>252779</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ryuudouin Rokkaku</t>
+          <t>Kanna</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -9290,22 +9290,22 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+          <t>https://cdn.myanimelist.net/images/characters/11/556471.jpg?s=98945f1e8236f50f0e55866e75af66a5</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>262915</v>
+        <v>252908</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Fuki</t>
+          <t>Kurama Uroko</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -9315,26 +9315,26 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556778.jpg?s=43edd3f81e9477970ee94975aacdf426</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>2025-03-30 15:23:40</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>267451</v>
+        <v>252909</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Funeno Daikoku</t>
+          <t>Kurama Murakumo</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -9344,26 +9344,26 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20</v>
+        <v>9982806</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
+          <t>https://cdn.myanimelist.net/images/characters/16/556779.jpg?s=ff432763a264218e9f920bc72ba9e456</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>267452</v>
+        <v>252910</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chouhan</t>
+          <t>Monju</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -9377,22 +9377,22 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
+          <t>https://cdn.myanimelist.net/images/characters/14/556780.jpg?s=a0498a86263d6e40b2cb73d1abea3312</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>2025-03-30 21:11:15</t>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>268346</v>
+        <v>252911</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Hostesssan</t>
+          <t>Toki</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -9406,12 +9406,505 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/556781.jpg?s=4476355ea7c84a2336b2e81808e40a11</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>252912</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Tsuzumi</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>20</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/8/556782.jpg?s=eeb13eb3285431c7f1eb16539bb39064</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>252915</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Fuki</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>20</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>252916</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Shiin</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>20</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/15/556787.jpg?s=10f5cb15592e6ddb3a01a561d4419c96</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>252918</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Suiko</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>20</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/6/556789.jpg?s=07a7f4e0573e04e955b8dcddf3d3c4cd</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>255312</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Mozuku</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>20</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/2/561139.jpg?s=62787f1d0c78d31aab2b2e0c96a2cfa0</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>256932</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Madam Shijimi</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>20</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/11/564585.jpg?s=c3404d895c871a6d8ad1ef9df041396e</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>261515</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Sangorou</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>20</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/16/554159.jpg?s=ff7ecc33b5da4da06f45c3510322f76b</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>262721</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Oowashi</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>20</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/3/556364.jpg?s=918b268e18714532d7fbc7c38f821789</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>262723</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Hitode</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>20</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/12/556368.jpg?s=3c9149431fcb51a27e4b1146ec77be9f</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>262732</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Fuku</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>20</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/556386.jpg?s=542e723e2815bfae7392729fd6fab249</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>262737</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Ryuudouin Genshou</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>20</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556391.jpg?s=084637c32dd1f48fa80d391d3f7d7ed0</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>262743</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Ryuudouin Rokkaku</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>20</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/10/556397.jpg?s=51bc706dc3003c860da3f00f8f956c93</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>262915</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Fuki</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>20</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/5/556786.jpg?s=b1b42c243862e4bb7a7491ce95e7db98</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>2025-03-30 15:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>267451</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Funeno Daikoku</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>20</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>267452</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Chouhan</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>20</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/2/584651.jpg?s=c436c30e724165a3aa7c00ec07b0e682</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2025-03-30 21:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>268346</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Hostesssan</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>20</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
           <t>https://cdn.myanimelist.net/images/characters/15/586086.jpg?s=02e9fb0931709c294a6b2efb03592daf</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2025-03-30 21:11:15</t>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>16/9/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>277451</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Funeno Daikoku</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>SUPPORTING</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>20</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>https://cdn.myanimelist.net/images/characters/14/584649.jpg?s=d7ca5b566b8e888ddfa191f47a686dbe</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>2025-04-06 20:52:34</t>
         </is>
       </c>
     </row>
